--- a/config_6.29/shoping_config_cjj.xlsx
+++ b/config_6.29/shoping_config_cjj.xlsx
@@ -214,7 +214,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5287" uniqueCount="1840">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5371" uniqueCount="1842">
   <si>
     <t>line_id|行号</t>
   </si>
@@ -5840,6 +5840,12 @@
   </si>
   <si>
     <t>9800000,2592000</t>
+  </si>
+  <si>
+    <t>盛夏礼包</t>
+  </si>
+  <si>
+    <t>"jing_bi","fish_coin"</t>
   </si>
   <si>
     <t>id|不能重复</t>
@@ -6717,9 +6723,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
@@ -6754,24 +6760,46 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6791,8 +6819,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6806,69 +6865,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6891,19 +6890,26 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -6984,7 +6990,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7002,7 +7026,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7014,19 +7074,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7038,37 +7092,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7080,25 +7104,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7116,25 +7128,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7174,6 +7180,39 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -7206,17 +7245,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -7224,35 +7252,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -7279,10 +7285,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -7291,133 +7297,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -10133,14 +10139,14 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AIF670"/>
+  <dimension ref="A1:AIF682"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="W622" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="W643" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="Y635" sqref="Y635:Z646"/>
+      <selection pane="bottomRight" activeCell="A671" sqref="$A671:$XFD682"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
@@ -61092,6 +61098,822 @@
         <v>1</v>
       </c>
     </row>
+    <row r="671" spans="1:39">
+      <c r="A671" s="21">
+        <v>670</v>
+      </c>
+      <c r="B671" s="30">
+        <v>10587</v>
+      </c>
+      <c r="F671" s="21">
+        <v>1</v>
+      </c>
+      <c r="G671" s="30" t="s">
+        <v>1643</v>
+      </c>
+      <c r="I671" s="28" t="s">
+        <v>1537</v>
+      </c>
+      <c r="J671" s="28" t="s">
+        <v>1558</v>
+      </c>
+      <c r="L671" s="28">
+        <v>-31</v>
+      </c>
+      <c r="M671" s="28">
+        <v>0</v>
+      </c>
+      <c r="N671" s="28">
+        <v>0</v>
+      </c>
+      <c r="O671" s="28" t="s">
+        <v>169</v>
+      </c>
+      <c r="P671" s="30">
+        <v>600</v>
+      </c>
+      <c r="Q671" s="30" t="s">
+        <v>1644</v>
+      </c>
+      <c r="R671" s="52" t="s">
+        <v>1559</v>
+      </c>
+      <c r="W671" s="28" t="s">
+        <v>478</v>
+      </c>
+      <c r="X671" s="28">
+        <v>99999999</v>
+      </c>
+      <c r="Y671" s="30">
+        <v>1624924800</v>
+      </c>
+      <c r="Z671" s="30">
+        <v>1625500799</v>
+      </c>
+      <c r="AA671" s="28">
+        <v>80</v>
+      </c>
+      <c r="AH671" s="30">
+        <v>1</v>
+      </c>
+      <c r="AI671" s="30">
+        <v>1</v>
+      </c>
+      <c r="AL671" s="30">
+        <v>1</v>
+      </c>
+      <c r="AM671" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="672" spans="1:39">
+      <c r="A672" s="21">
+        <v>671</v>
+      </c>
+      <c r="B672" s="30">
+        <v>10588</v>
+      </c>
+      <c r="F672" s="21">
+        <v>1</v>
+      </c>
+      <c r="G672" s="30" t="s">
+        <v>1643</v>
+      </c>
+      <c r="I672" s="28" t="s">
+        <v>1537</v>
+      </c>
+      <c r="J672" s="28" t="s">
+        <v>1560</v>
+      </c>
+      <c r="L672" s="28">
+        <v>-31</v>
+      </c>
+      <c r="M672" s="28">
+        <v>0</v>
+      </c>
+      <c r="N672" s="28">
+        <v>0</v>
+      </c>
+      <c r="O672" s="28" t="s">
+        <v>169</v>
+      </c>
+      <c r="P672" s="30">
+        <v>1000</v>
+      </c>
+      <c r="Q672" s="30" t="s">
+        <v>1644</v>
+      </c>
+      <c r="R672" s="52" t="s">
+        <v>1561</v>
+      </c>
+      <c r="W672" s="28" t="s">
+        <v>478</v>
+      </c>
+      <c r="X672" s="28">
+        <v>99999999</v>
+      </c>
+      <c r="Y672" s="30">
+        <v>1624924800</v>
+      </c>
+      <c r="Z672" s="30">
+        <v>1625500799</v>
+      </c>
+      <c r="AA672" s="28">
+        <v>80</v>
+      </c>
+      <c r="AH672" s="30">
+        <v>1</v>
+      </c>
+      <c r="AI672" s="30">
+        <v>1</v>
+      </c>
+      <c r="AL672" s="30">
+        <v>1</v>
+      </c>
+      <c r="AM672" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="673" spans="1:39">
+      <c r="A673" s="21">
+        <v>672</v>
+      </c>
+      <c r="B673" s="30">
+        <v>10589</v>
+      </c>
+      <c r="F673" s="21">
+        <v>1</v>
+      </c>
+      <c r="G673" s="30" t="s">
+        <v>1643</v>
+      </c>
+      <c r="I673" s="28" t="s">
+        <v>1537</v>
+      </c>
+      <c r="J673" s="28" t="s">
+        <v>1562</v>
+      </c>
+      <c r="L673" s="28">
+        <v>-31</v>
+      </c>
+      <c r="M673" s="28">
+        <v>0</v>
+      </c>
+      <c r="N673" s="28">
+        <v>0</v>
+      </c>
+      <c r="O673" s="28" t="s">
+        <v>169</v>
+      </c>
+      <c r="P673" s="30">
+        <v>1800</v>
+      </c>
+      <c r="Q673" s="30" t="s">
+        <v>1644</v>
+      </c>
+      <c r="R673" s="52" t="s">
+        <v>1563</v>
+      </c>
+      <c r="W673" s="28" t="s">
+        <v>478</v>
+      </c>
+      <c r="X673" s="28">
+        <v>99999999</v>
+      </c>
+      <c r="Y673" s="30">
+        <v>1624924800</v>
+      </c>
+      <c r="Z673" s="30">
+        <v>1625500799</v>
+      </c>
+      <c r="AA673" s="28">
+        <v>80</v>
+      </c>
+      <c r="AH673" s="30">
+        <v>1</v>
+      </c>
+      <c r="AI673" s="30">
+        <v>1</v>
+      </c>
+      <c r="AL673" s="30">
+        <v>1</v>
+      </c>
+      <c r="AM673" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="674" spans="1:39">
+      <c r="A674" s="21">
+        <v>673</v>
+      </c>
+      <c r="B674" s="30">
+        <v>10590</v>
+      </c>
+      <c r="F674" s="21">
+        <v>1</v>
+      </c>
+      <c r="G674" s="30" t="s">
+        <v>1643</v>
+      </c>
+      <c r="I674" s="28" t="s">
+        <v>1544</v>
+      </c>
+      <c r="J674" s="28" t="s">
+        <v>1564</v>
+      </c>
+      <c r="L674" s="28">
+        <v>-31</v>
+      </c>
+      <c r="M674" s="28">
+        <v>0</v>
+      </c>
+      <c r="N674" s="28">
+        <v>0</v>
+      </c>
+      <c r="O674" s="28" t="s">
+        <v>169</v>
+      </c>
+      <c r="P674" s="30">
+        <v>1800</v>
+      </c>
+      <c r="Q674" s="30" t="s">
+        <v>1644</v>
+      </c>
+      <c r="R674" s="52" t="s">
+        <v>1546</v>
+      </c>
+      <c r="W674" s="28" t="s">
+        <v>478</v>
+      </c>
+      <c r="X674" s="28">
+        <v>99999999</v>
+      </c>
+      <c r="Y674" s="30">
+        <v>1624924800</v>
+      </c>
+      <c r="Z674" s="30">
+        <v>1625500799</v>
+      </c>
+      <c r="AA674" s="28">
+        <v>81</v>
+      </c>
+      <c r="AH674" s="30">
+        <v>1</v>
+      </c>
+      <c r="AI674" s="30">
+        <v>1</v>
+      </c>
+      <c r="AL674" s="30">
+        <v>1</v>
+      </c>
+      <c r="AM674" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="675" spans="1:39">
+      <c r="A675" s="21">
+        <v>674</v>
+      </c>
+      <c r="B675" s="30">
+        <v>10591</v>
+      </c>
+      <c r="F675" s="21">
+        <v>1</v>
+      </c>
+      <c r="G675" s="30" t="s">
+        <v>1643</v>
+      </c>
+      <c r="I675" s="28" t="s">
+        <v>1544</v>
+      </c>
+      <c r="J675" s="28" t="s">
+        <v>1565</v>
+      </c>
+      <c r="L675" s="28">
+        <v>-31</v>
+      </c>
+      <c r="M675" s="28">
+        <v>0</v>
+      </c>
+      <c r="N675" s="28">
+        <v>0</v>
+      </c>
+      <c r="O675" s="28" t="s">
+        <v>169</v>
+      </c>
+      <c r="P675" s="30">
+        <v>3000</v>
+      </c>
+      <c r="Q675" s="30" t="s">
+        <v>1644</v>
+      </c>
+      <c r="R675" s="52" t="s">
+        <v>1548</v>
+      </c>
+      <c r="W675" s="28" t="s">
+        <v>478</v>
+      </c>
+      <c r="X675" s="28">
+        <v>99999999</v>
+      </c>
+      <c r="Y675" s="30">
+        <v>1624924800</v>
+      </c>
+      <c r="Z675" s="30">
+        <v>1625500799</v>
+      </c>
+      <c r="AA675" s="28">
+        <v>81</v>
+      </c>
+      <c r="AH675" s="30">
+        <v>1</v>
+      </c>
+      <c r="AI675" s="30">
+        <v>1</v>
+      </c>
+      <c r="AL675" s="30">
+        <v>1</v>
+      </c>
+      <c r="AM675" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="676" spans="1:39">
+      <c r="A676" s="21">
+        <v>675</v>
+      </c>
+      <c r="B676" s="30">
+        <v>10592</v>
+      </c>
+      <c r="F676" s="21">
+        <v>1</v>
+      </c>
+      <c r="G676" s="30" t="s">
+        <v>1643</v>
+      </c>
+      <c r="I676" s="28" t="s">
+        <v>1544</v>
+      </c>
+      <c r="J676" s="28" t="s">
+        <v>1566</v>
+      </c>
+      <c r="L676" s="28">
+        <v>-31</v>
+      </c>
+      <c r="M676" s="28">
+        <v>0</v>
+      </c>
+      <c r="N676" s="28">
+        <v>0</v>
+      </c>
+      <c r="O676" s="28" t="s">
+        <v>169</v>
+      </c>
+      <c r="P676" s="30">
+        <v>4800</v>
+      </c>
+      <c r="Q676" s="30" t="s">
+        <v>1644</v>
+      </c>
+      <c r="R676" s="52" t="s">
+        <v>1550</v>
+      </c>
+      <c r="W676" s="28" t="s">
+        <v>478</v>
+      </c>
+      <c r="X676" s="28">
+        <v>99999999</v>
+      </c>
+      <c r="Y676" s="30">
+        <v>1624924800</v>
+      </c>
+      <c r="Z676" s="30">
+        <v>1625500799</v>
+      </c>
+      <c r="AA676" s="28">
+        <v>81</v>
+      </c>
+      <c r="AH676" s="30">
+        <v>1</v>
+      </c>
+      <c r="AI676" s="30">
+        <v>1</v>
+      </c>
+      <c r="AL676" s="30">
+        <v>1</v>
+      </c>
+      <c r="AM676" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="677" spans="1:39">
+      <c r="A677" s="21">
+        <v>676</v>
+      </c>
+      <c r="B677" s="30">
+        <v>10593</v>
+      </c>
+      <c r="F677" s="21">
+        <v>1</v>
+      </c>
+      <c r="G677" s="30" t="s">
+        <v>1643</v>
+      </c>
+      <c r="I677" s="28" t="s">
+        <v>1551</v>
+      </c>
+      <c r="J677" s="28" t="s">
+        <v>1566</v>
+      </c>
+      <c r="L677" s="28">
+        <v>-31</v>
+      </c>
+      <c r="M677" s="28">
+        <v>0</v>
+      </c>
+      <c r="N677" s="28">
+        <v>0</v>
+      </c>
+      <c r="O677" s="28" t="s">
+        <v>169</v>
+      </c>
+      <c r="P677" s="30">
+        <v>4800</v>
+      </c>
+      <c r="Q677" s="30" t="s">
+        <v>1644</v>
+      </c>
+      <c r="R677" s="52" t="s">
+        <v>1550</v>
+      </c>
+      <c r="W677" s="28" t="s">
+        <v>478</v>
+      </c>
+      <c r="X677" s="28">
+        <v>99999999</v>
+      </c>
+      <c r="Y677" s="30">
+        <v>1624924800</v>
+      </c>
+      <c r="Z677" s="30">
+        <v>1625500799</v>
+      </c>
+      <c r="AA677" s="28">
+        <v>82</v>
+      </c>
+      <c r="AH677" s="30">
+        <v>1</v>
+      </c>
+      <c r="AI677" s="30">
+        <v>1</v>
+      </c>
+      <c r="AL677" s="30">
+        <v>1</v>
+      </c>
+      <c r="AM677" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="678" spans="1:39">
+      <c r="A678" s="21">
+        <v>677</v>
+      </c>
+      <c r="B678" s="30">
+        <v>10594</v>
+      </c>
+      <c r="F678" s="21">
+        <v>1</v>
+      </c>
+      <c r="G678" s="30" t="s">
+        <v>1643</v>
+      </c>
+      <c r="I678" s="28" t="s">
+        <v>1551</v>
+      </c>
+      <c r="J678" s="28" t="s">
+        <v>1567</v>
+      </c>
+      <c r="L678" s="28">
+        <v>-31</v>
+      </c>
+      <c r="M678" s="28">
+        <v>0</v>
+      </c>
+      <c r="N678" s="28">
+        <v>0</v>
+      </c>
+      <c r="O678" s="28" t="s">
+        <v>169</v>
+      </c>
+      <c r="P678" s="30">
+        <v>9800</v>
+      </c>
+      <c r="Q678" s="30" t="s">
+        <v>1644</v>
+      </c>
+      <c r="R678" s="52" t="s">
+        <v>1553</v>
+      </c>
+      <c r="W678" s="28" t="s">
+        <v>478</v>
+      </c>
+      <c r="X678" s="28">
+        <v>99999999</v>
+      </c>
+      <c r="Y678" s="30">
+        <v>1624924800</v>
+      </c>
+      <c r="Z678" s="30">
+        <v>1625500799</v>
+      </c>
+      <c r="AA678" s="28">
+        <v>82</v>
+      </c>
+      <c r="AH678" s="30">
+        <v>1</v>
+      </c>
+      <c r="AI678" s="30">
+        <v>1</v>
+      </c>
+      <c r="AL678" s="30">
+        <v>1</v>
+      </c>
+      <c r="AM678" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="679" spans="1:39">
+      <c r="A679" s="21">
+        <v>678</v>
+      </c>
+      <c r="B679" s="30">
+        <v>10595</v>
+      </c>
+      <c r="F679" s="21">
+        <v>1</v>
+      </c>
+      <c r="G679" s="30" t="s">
+        <v>1643</v>
+      </c>
+      <c r="I679" s="28" t="s">
+        <v>1551</v>
+      </c>
+      <c r="J679" s="28" t="s">
+        <v>1568</v>
+      </c>
+      <c r="L679" s="28">
+        <v>-31</v>
+      </c>
+      <c r="M679" s="28">
+        <v>0</v>
+      </c>
+      <c r="N679" s="28">
+        <v>0</v>
+      </c>
+      <c r="O679" s="28" t="s">
+        <v>169</v>
+      </c>
+      <c r="P679" s="30">
+        <v>19800</v>
+      </c>
+      <c r="Q679" s="30" t="s">
+        <v>1644</v>
+      </c>
+      <c r="R679" s="52" t="s">
+        <v>1555</v>
+      </c>
+      <c r="W679" s="28" t="s">
+        <v>478</v>
+      </c>
+      <c r="X679" s="28">
+        <v>99999999</v>
+      </c>
+      <c r="Y679" s="30">
+        <v>1624924800</v>
+      </c>
+      <c r="Z679" s="30">
+        <v>1625500799</v>
+      </c>
+      <c r="AA679" s="28">
+        <v>82</v>
+      </c>
+      <c r="AH679" s="30">
+        <v>1</v>
+      </c>
+      <c r="AI679" s="30">
+        <v>1</v>
+      </c>
+      <c r="AL679" s="30">
+        <v>1</v>
+      </c>
+      <c r="AM679" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="680" spans="1:39">
+      <c r="A680" s="21">
+        <v>679</v>
+      </c>
+      <c r="B680" s="30">
+        <v>10596</v>
+      </c>
+      <c r="F680" s="21">
+        <v>1</v>
+      </c>
+      <c r="G680" s="30" t="s">
+        <v>1643</v>
+      </c>
+      <c r="I680" s="28" t="s">
+        <v>1440</v>
+      </c>
+      <c r="J680" s="28" t="s">
+        <v>1567</v>
+      </c>
+      <c r="L680" s="28">
+        <v>-31</v>
+      </c>
+      <c r="M680" s="28">
+        <v>0</v>
+      </c>
+      <c r="N680" s="28">
+        <v>0</v>
+      </c>
+      <c r="O680" s="28" t="s">
+        <v>169</v>
+      </c>
+      <c r="P680" s="30">
+        <v>9800</v>
+      </c>
+      <c r="Q680" s="30" t="s">
+        <v>1644</v>
+      </c>
+      <c r="R680" s="52" t="s">
+        <v>1553</v>
+      </c>
+      <c r="W680" s="28" t="s">
+        <v>478</v>
+      </c>
+      <c r="X680" s="28">
+        <v>99999999</v>
+      </c>
+      <c r="Y680" s="30">
+        <v>1624924800</v>
+      </c>
+      <c r="Z680" s="30">
+        <v>1625500799</v>
+      </c>
+      <c r="AA680" s="28">
+        <v>83</v>
+      </c>
+      <c r="AH680" s="30">
+        <v>1</v>
+      </c>
+      <c r="AI680" s="30">
+        <v>1</v>
+      </c>
+      <c r="AL680" s="30">
+        <v>1</v>
+      </c>
+      <c r="AM680" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="681" spans="1:39">
+      <c r="A681" s="21">
+        <v>680</v>
+      </c>
+      <c r="B681" s="30">
+        <v>10597</v>
+      </c>
+      <c r="F681" s="21">
+        <v>1</v>
+      </c>
+      <c r="G681" s="30" t="s">
+        <v>1643</v>
+      </c>
+      <c r="I681" s="28" t="s">
+        <v>1440</v>
+      </c>
+      <c r="J681" s="28" t="s">
+        <v>1568</v>
+      </c>
+      <c r="L681" s="28">
+        <v>-31</v>
+      </c>
+      <c r="M681" s="28">
+        <v>0</v>
+      </c>
+      <c r="N681" s="28">
+        <v>0</v>
+      </c>
+      <c r="O681" s="28" t="s">
+        <v>169</v>
+      </c>
+      <c r="P681" s="30">
+        <v>19800</v>
+      </c>
+      <c r="Q681" s="30" t="s">
+        <v>1644</v>
+      </c>
+      <c r="R681" s="52" t="s">
+        <v>1555</v>
+      </c>
+      <c r="W681" s="28" t="s">
+        <v>478</v>
+      </c>
+      <c r="X681" s="28">
+        <v>99999999</v>
+      </c>
+      <c r="Y681" s="30">
+        <v>1624924800</v>
+      </c>
+      <c r="Z681" s="30">
+        <v>1625500799</v>
+      </c>
+      <c r="AA681" s="28">
+        <v>83</v>
+      </c>
+      <c r="AH681" s="30">
+        <v>1</v>
+      </c>
+      <c r="AI681" s="30">
+        <v>1</v>
+      </c>
+      <c r="AL681" s="30">
+        <v>1</v>
+      </c>
+      <c r="AM681" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="682" spans="1:39">
+      <c r="A682" s="21">
+        <v>681</v>
+      </c>
+      <c r="B682" s="30">
+        <v>10598</v>
+      </c>
+      <c r="F682" s="21">
+        <v>1</v>
+      </c>
+      <c r="G682" s="30" t="s">
+        <v>1643</v>
+      </c>
+      <c r="I682" s="28" t="s">
+        <v>1440</v>
+      </c>
+      <c r="J682" s="28" t="s">
+        <v>1569</v>
+      </c>
+      <c r="L682" s="28">
+        <v>-31</v>
+      </c>
+      <c r="M682" s="28">
+        <v>0</v>
+      </c>
+      <c r="N682" s="28">
+        <v>0</v>
+      </c>
+      <c r="O682" s="28" t="s">
+        <v>169</v>
+      </c>
+      <c r="P682" s="30">
+        <v>49800</v>
+      </c>
+      <c r="Q682" s="30" t="s">
+        <v>1644</v>
+      </c>
+      <c r="R682" s="52" t="s">
+        <v>1557</v>
+      </c>
+      <c r="W682" s="28" t="s">
+        <v>478</v>
+      </c>
+      <c r="X682" s="28">
+        <v>99999999</v>
+      </c>
+      <c r="Y682" s="30">
+        <v>1624924800</v>
+      </c>
+      <c r="Z682" s="30">
+        <v>1625500799</v>
+      </c>
+      <c r="AA682" s="28">
+        <v>83</v>
+      </c>
+      <c r="AH682" s="30">
+        <v>1</v>
+      </c>
+      <c r="AI682" s="30">
+        <v>1</v>
+      </c>
+      <c r="AL682" s="30">
+        <v>1</v>
+      </c>
+      <c r="AM682" s="30">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -61118,19 +61940,19 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="58.5" customHeight="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>1643</v>
+        <v>1645</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1644</v>
+        <v>1646</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1645</v>
+        <v>1647</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>1646</v>
+        <v>1648</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>1647</v>
+        <v>1649</v>
       </c>
     </row>
     <row r="2" ht="57.75" customHeight="1" spans="1:5">
@@ -61138,7 +61960,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>1648</v>
+        <v>1650</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -61147,7 +61969,7 @@
         <v>3600</v>
       </c>
       <c r="E2" t="s">
-        <v>1649</v>
+        <v>1651</v>
       </c>
     </row>
     <row r="3" ht="78.75" customHeight="1" spans="1:4">
@@ -61155,7 +61977,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>1650</v>
+        <v>1652</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -61169,7 +61991,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>1651</v>
+        <v>1653</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -61183,7 +62005,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>1652</v>
+        <v>1654</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -61197,7 +62019,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>1653</v>
+        <v>1655</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -61211,7 +62033,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>1654</v>
+        <v>1656</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -61225,7 +62047,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>1655</v>
+        <v>1657</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -61239,7 +62061,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>1656</v>
+        <v>1658</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -61253,7 +62075,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>1657</v>
+        <v>1659</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -61267,7 +62089,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>1658</v>
+        <v>1660</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -61281,7 +62103,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>1653</v>
+        <v>1655</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -61295,7 +62117,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>1654</v>
+        <v>1656</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -61309,7 +62131,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>1659</v>
+        <v>1661</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -61323,7 +62145,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>1660</v>
+        <v>1662</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -61337,7 +62159,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="20" t="s">
-        <v>1661</v>
+        <v>1663</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -61351,7 +62173,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>1662</v>
+        <v>1664</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -61365,7 +62187,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>1663</v>
+        <v>1665</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -61379,7 +62201,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>1664</v>
+        <v>1666</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -61393,7 +62215,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>1665</v>
+        <v>1667</v>
       </c>
       <c r="C20" s="2">
         <v>1</v>
@@ -61407,7 +62229,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>1666</v>
+        <v>1668</v>
       </c>
       <c r="C21" s="2">
         <v>1</v>
@@ -61421,7 +62243,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>1667</v>
+        <v>1669</v>
       </c>
       <c r="C22" s="2">
         <v>1</v>
@@ -61435,7 +62257,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>1668</v>
+        <v>1670</v>
       </c>
       <c r="C23" s="2">
         <v>1</v>
@@ -61449,7 +62271,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>1669</v>
+        <v>1671</v>
       </c>
       <c r="C24" s="2">
         <v>1</v>
@@ -61463,7 +62285,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>1670</v>
+        <v>1672</v>
       </c>
       <c r="C25" s="2">
         <v>1</v>
@@ -61477,7 +62299,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>1671</v>
+        <v>1673</v>
       </c>
       <c r="C26" s="2">
         <v>1</v>
@@ -61491,7 +62313,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>1672</v>
+        <v>1674</v>
       </c>
       <c r="C27" s="2">
         <v>1</v>
@@ -61506,7 +62328,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>1673</v>
+        <v>1675</v>
       </c>
       <c r="C28" s="2">
         <v>1</v>
@@ -61521,7 +62343,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>1674</v>
+        <v>1676</v>
       </c>
       <c r="C29" s="2">
         <v>1</v>
@@ -61536,7 +62358,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>1675</v>
+        <v>1677</v>
       </c>
       <c r="C30" s="2">
         <v>1</v>
@@ -61551,7 +62373,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>1676</v>
+        <v>1678</v>
       </c>
       <c r="C31" s="2">
         <v>1</v>
@@ -61566,7 +62388,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>1677</v>
+        <v>1679</v>
       </c>
       <c r="C32" s="2">
         <v>1</v>
@@ -61581,7 +62403,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>1678</v>
+        <v>1680</v>
       </c>
       <c r="C33" s="2">
         <v>1</v>
@@ -61596,7 +62418,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>1679</v>
+        <v>1681</v>
       </c>
       <c r="C34" s="2">
         <v>1</v>
@@ -61611,7 +62433,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>1680</v>
+        <v>1682</v>
       </c>
       <c r="C35" s="2">
         <v>1</v>
@@ -61626,7 +62448,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>1681</v>
+        <v>1683</v>
       </c>
       <c r="C36" s="2">
         <v>1</v>
@@ -61641,7 +62463,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>1682</v>
+        <v>1684</v>
       </c>
       <c r="C37" s="2">
         <v>1</v>
@@ -61656,7 +62478,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>1683</v>
+        <v>1685</v>
       </c>
       <c r="C38" s="2">
         <v>1</v>
@@ -61671,7 +62493,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>1684</v>
+        <v>1686</v>
       </c>
       <c r="C39" s="2">
         <v>1</v>
@@ -61685,7 +62507,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>1685</v>
+        <v>1687</v>
       </c>
       <c r="C40" s="2">
         <v>1</v>
@@ -61699,7 +62521,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>1686</v>
+        <v>1688</v>
       </c>
       <c r="C41" s="2">
         <v>1</v>
@@ -61713,7 +62535,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>1687</v>
+        <v>1689</v>
       </c>
       <c r="C42" s="2">
         <v>1</v>
@@ -61727,7 +62549,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>1688</v>
+        <v>1690</v>
       </c>
       <c r="C43" s="2">
         <v>1</v>
@@ -61741,7 +62563,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>1689</v>
+        <v>1691</v>
       </c>
       <c r="C44" s="2">
         <v>1</v>
@@ -61755,7 +62577,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>1690</v>
+        <v>1692</v>
       </c>
       <c r="C45" s="2">
         <v>1</v>
@@ -61769,7 +62591,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>1691</v>
+        <v>1693</v>
       </c>
       <c r="C46" s="2">
         <v>1</v>
@@ -61783,7 +62605,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>1692</v>
+        <v>1694</v>
       </c>
       <c r="C47" s="2">
         <v>1</v>
@@ -61797,7 +62619,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>1693</v>
+        <v>1695</v>
       </c>
       <c r="C48" s="2">
         <v>1</v>
@@ -61811,7 +62633,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>1694</v>
+        <v>1696</v>
       </c>
       <c r="C49" s="2">
         <v>1</v>
@@ -61825,7 +62647,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>1695</v>
+        <v>1697</v>
       </c>
       <c r="C50" s="2">
         <v>1</v>
@@ -61839,7 +62661,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>1696</v>
+        <v>1698</v>
       </c>
       <c r="C51" s="2">
         <v>1</v>
@@ -61853,7 +62675,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>1697</v>
+        <v>1699</v>
       </c>
       <c r="C52" s="2">
         <v>1</v>
@@ -61867,7 +62689,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>1698</v>
+        <v>1700</v>
       </c>
       <c r="C53" s="2">
         <v>1</v>
@@ -61881,7 +62703,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>1699</v>
+        <v>1701</v>
       </c>
       <c r="C54" s="2">
         <v>1</v>
@@ -61895,7 +62717,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>1700</v>
+        <v>1702</v>
       </c>
       <c r="C55" s="2">
         <v>1</v>
@@ -61909,7 +62731,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>1701</v>
+        <v>1703</v>
       </c>
       <c r="C56" s="2">
         <v>1</v>
@@ -61923,7 +62745,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>1702</v>
+        <v>1704</v>
       </c>
       <c r="C57" s="2">
         <v>1</v>
@@ -61937,7 +62759,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>1703</v>
+        <v>1705</v>
       </c>
       <c r="C58" s="2">
         <v>1</v>
@@ -61951,7 +62773,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>1704</v>
+        <v>1706</v>
       </c>
       <c r="C59" s="2">
         <v>1</v>
@@ -61965,7 +62787,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>1705</v>
+        <v>1707</v>
       </c>
       <c r="C60" s="2">
         <v>1</v>
@@ -61979,7 +62801,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>1706</v>
+        <v>1708</v>
       </c>
       <c r="C61" s="2">
         <v>1</v>
@@ -61993,7 +62815,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>1707</v>
+        <v>1709</v>
       </c>
       <c r="C62" s="2">
         <v>1</v>
@@ -62007,7 +62829,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>1708</v>
+        <v>1710</v>
       </c>
       <c r="C63" s="2">
         <v>1</v>
@@ -62021,7 +62843,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>1709</v>
+        <v>1711</v>
       </c>
       <c r="C64" s="2">
         <v>1</v>
@@ -62035,7 +62857,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>1710</v>
+        <v>1712</v>
       </c>
       <c r="C65" s="2">
         <v>1</v>
@@ -62049,7 +62871,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>1711</v>
+        <v>1713</v>
       </c>
       <c r="C66" s="2">
         <v>1</v>
@@ -62063,7 +62885,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>1712</v>
+        <v>1714</v>
       </c>
       <c r="C67" s="2">
         <v>1</v>
@@ -62077,7 +62899,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>1713</v>
+        <v>1715</v>
       </c>
       <c r="C68" s="2">
         <v>1</v>
@@ -62091,7 +62913,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>1714</v>
+        <v>1716</v>
       </c>
       <c r="C69" s="2">
         <v>1</v>
@@ -62105,7 +62927,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>1715</v>
+        <v>1717</v>
       </c>
       <c r="C70" s="2">
         <v>1</v>
@@ -62119,7 +62941,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="22" t="s">
-        <v>1716</v>
+        <v>1718</v>
       </c>
       <c r="C71" s="19">
         <v>1</v>
@@ -62133,7 +62955,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="22" t="s">
-        <v>1717</v>
+        <v>1719</v>
       </c>
       <c r="C72" s="19">
         <v>1</v>
@@ -62147,7 +62969,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="22" t="s">
-        <v>1718</v>
+        <v>1720</v>
       </c>
       <c r="C73" s="19">
         <v>1</v>
@@ -62161,7 +62983,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="22" t="s">
-        <v>1719</v>
+        <v>1721</v>
       </c>
       <c r="C74" s="19">
         <v>1</v>
@@ -62175,7 +62997,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="22" t="s">
-        <v>1720</v>
+        <v>1722</v>
       </c>
       <c r="C75" s="19">
         <v>1</v>
@@ -62189,7 +63011,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="22" t="s">
-        <v>1721</v>
+        <v>1723</v>
       </c>
       <c r="C76" s="19">
         <v>1</v>
@@ -62203,7 +63025,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="22" t="s">
-        <v>1722</v>
+        <v>1724</v>
       </c>
       <c r="C77" s="19">
         <v>1</v>
@@ -62217,7 +63039,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="22" t="s">
-        <v>1723</v>
+        <v>1725</v>
       </c>
       <c r="C78" s="19">
         <v>1</v>
@@ -62231,7 +63053,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="22" t="s">
-        <v>1724</v>
+        <v>1726</v>
       </c>
       <c r="C79" s="19">
         <v>1</v>
@@ -62245,7 +63067,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="22" t="s">
-        <v>1725</v>
+        <v>1727</v>
       </c>
       <c r="C80" s="19">
         <v>1</v>
@@ -62259,7 +63081,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="23" t="s">
-        <v>1726</v>
+        <v>1728</v>
       </c>
       <c r="C81" s="2">
         <v>1</v>
@@ -62273,7 +63095,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="23" t="s">
-        <v>1727</v>
+        <v>1729</v>
       </c>
       <c r="C82" s="2">
         <v>1</v>
@@ -62287,7 +63109,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="23" t="s">
-        <v>1728</v>
+        <v>1730</v>
       </c>
       <c r="C83" s="2">
         <v>1</v>
@@ -62301,7 +63123,7 @@
         <v>83</v>
       </c>
       <c r="B84" s="23" t="s">
-        <v>1729</v>
+        <v>1731</v>
       </c>
       <c r="C84" s="2">
         <v>1</v>
@@ -62315,7 +63137,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="23" t="s">
-        <v>1730</v>
+        <v>1732</v>
       </c>
       <c r="C85">
         <v>1</v>
@@ -62369,7 +63191,7 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="90" customHeight="1" spans="1:30">
       <c r="A1" s="1" t="s">
-        <v>1731</v>
+        <v>1733</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>22</v>
@@ -62384,19 +63206,19 @@
         <v>27</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>1732</v>
+        <v>1734</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>1733</v>
+        <v>1735</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>1734</v>
+        <v>1736</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>1735</v>
+        <v>1737</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>1736</v>
+        <v>1738</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>32</v>
@@ -62411,7 +63233,7 @@
         <v>39</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>1737</v>
+        <v>1739</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>40</v>
@@ -62456,7 +63278,7 @@
         <v>53</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>1738</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="2" s="12" customFormat="1" spans="1:27">
@@ -62479,7 +63301,7 @@
         <v>1</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>1739</v>
+        <v>1741</v>
       </c>
       <c r="H2" s="12">
         <v>600</v>
@@ -62509,19 +63331,19 @@
         <v>131</v>
       </c>
       <c r="R2" s="17" t="s">
-        <v>1740</v>
+        <v>1742</v>
       </c>
       <c r="T2" s="17" t="s">
-        <v>1741</v>
+        <v>1743</v>
       </c>
       <c r="U2" s="12" t="s">
         <v>62</v>
       </c>
       <c r="V2" s="17" t="s">
-        <v>1742</v>
+        <v>1744</v>
       </c>
       <c r="W2" s="12" t="s">
-        <v>1743</v>
+        <v>1745</v>
       </c>
       <c r="Z2" s="12">
         <v>1</v>
@@ -62550,7 +63372,7 @@
         <v>2</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>1739</v>
+        <v>1741</v>
       </c>
       <c r="H3" s="12">
         <v>1500</v>
@@ -62577,22 +63399,22 @@
         <v>4</v>
       </c>
       <c r="Q3" s="17" t="s">
-        <v>1744</v>
+        <v>1746</v>
       </c>
       <c r="R3" s="17" t="s">
-        <v>1745</v>
+        <v>1747</v>
       </c>
       <c r="T3" s="17" t="s">
-        <v>1741</v>
+        <v>1743</v>
       </c>
       <c r="U3" s="12" t="s">
         <v>67</v>
       </c>
       <c r="V3" s="17" t="s">
-        <v>1746</v>
+        <v>1748</v>
       </c>
       <c r="W3" s="12" t="s">
-        <v>1743</v>
+        <v>1745</v>
       </c>
       <c r="Z3" s="12">
         <v>1</v>
@@ -62621,7 +63443,7 @@
         <v>3</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>1739</v>
+        <v>1741</v>
       </c>
       <c r="H4" s="12">
         <v>3000</v>
@@ -62648,22 +63470,22 @@
         <v>5</v>
       </c>
       <c r="Q4" s="17" t="s">
-        <v>1747</v>
+        <v>1749</v>
       </c>
       <c r="R4" s="17" t="s">
-        <v>1748</v>
+        <v>1750</v>
       </c>
       <c r="T4" s="17" t="s">
-        <v>1741</v>
+        <v>1743</v>
       </c>
       <c r="U4" s="12" t="s">
         <v>71</v>
       </c>
       <c r="V4" s="12" t="s">
-        <v>1749</v>
+        <v>1751</v>
       </c>
       <c r="W4" s="12" t="s">
-        <v>1743</v>
+        <v>1745</v>
       </c>
       <c r="Z4" s="12">
         <v>1</v>
@@ -62692,7 +63514,7 @@
         <v>4</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>1739</v>
+        <v>1741</v>
       </c>
       <c r="H5" s="12">
         <v>5000</v>
@@ -62719,22 +63541,22 @@
         <v>6</v>
       </c>
       <c r="Q5" s="17" t="s">
-        <v>1750</v>
+        <v>1752</v>
       </c>
       <c r="R5" s="17" t="s">
-        <v>1751</v>
+        <v>1753</v>
       </c>
       <c r="T5" s="17" t="s">
-        <v>1741</v>
+        <v>1743</v>
       </c>
       <c r="U5" s="12" t="s">
         <v>75</v>
       </c>
       <c r="V5" s="17" t="s">
-        <v>1752</v>
+        <v>1754</v>
       </c>
       <c r="W5" s="12" t="s">
-        <v>1743</v>
+        <v>1745</v>
       </c>
       <c r="Z5" s="12">
         <v>1</v>
@@ -62763,7 +63585,7 @@
         <v>5</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>1739</v>
+        <v>1741</v>
       </c>
       <c r="H6" s="12">
         <v>9800</v>
@@ -62790,22 +63612,22 @@
         <v>7</v>
       </c>
       <c r="Q6" s="17" t="s">
-        <v>1753</v>
+        <v>1755</v>
       </c>
       <c r="R6" s="17" t="s">
-        <v>1754</v>
+        <v>1756</v>
       </c>
       <c r="T6" s="17" t="s">
-        <v>1741</v>
+        <v>1743</v>
       </c>
       <c r="U6" s="12" t="s">
         <v>79</v>
       </c>
       <c r="V6" s="12" t="s">
-        <v>1755</v>
+        <v>1757</v>
       </c>
       <c r="W6" s="12" t="s">
-        <v>1743</v>
+        <v>1745</v>
       </c>
       <c r="Z6" s="12">
         <v>1</v>
@@ -62834,7 +63656,7 @@
         <v>6</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>1739</v>
+        <v>1741</v>
       </c>
       <c r="H7" s="12">
         <v>49800</v>
@@ -62861,22 +63683,22 @@
         <v>9</v>
       </c>
       <c r="Q7" s="17" t="s">
-        <v>1756</v>
+        <v>1758</v>
       </c>
       <c r="R7" s="17" t="s">
-        <v>1757</v>
+        <v>1759</v>
       </c>
       <c r="T7" s="17" t="s">
-        <v>1741</v>
+        <v>1743</v>
       </c>
       <c r="U7" s="12" t="s">
         <v>83</v>
       </c>
       <c r="V7" s="12" t="s">
-        <v>1758</v>
+        <v>1760</v>
       </c>
       <c r="W7" s="12" t="s">
-        <v>1743</v>
+        <v>1745</v>
       </c>
       <c r="Z7" s="12">
         <v>1</v>
@@ -62900,7 +63722,7 @@
         <v>1</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>1739</v>
+        <v>1741</v>
       </c>
       <c r="H8" s="12">
         <v>100</v>
@@ -62927,22 +63749,22 @@
         <v>0</v>
       </c>
       <c r="Q8" s="17" t="s">
-        <v>1759</v>
+        <v>1761</v>
       </c>
       <c r="R8" s="17" t="s">
-        <v>1760</v>
+        <v>1762</v>
       </c>
       <c r="T8" s="17" t="s">
-        <v>1741</v>
+        <v>1743</v>
       </c>
       <c r="U8" s="12" t="s">
         <v>62</v>
       </c>
       <c r="V8" s="17" t="s">
-        <v>1742</v>
+        <v>1744</v>
       </c>
       <c r="W8" s="12" t="s">
-        <v>1743</v>
+        <v>1745</v>
       </c>
       <c r="Z8" s="12">
         <v>1</v>
@@ -62966,7 +63788,7 @@
         <v>5</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>1761</v>
+        <v>1763</v>
       </c>
       <c r="H9" s="12">
         <v>5000</v>
@@ -62993,19 +63815,19 @@
         <v>2</v>
       </c>
       <c r="Q9" s="17" t="s">
-        <v>1750</v>
+        <v>1752</v>
       </c>
       <c r="R9" s="17" t="s">
-        <v>1751</v>
+        <v>1753</v>
       </c>
       <c r="U9" s="12">
         <v>5000</v>
       </c>
       <c r="V9" s="12" t="s">
-        <v>1752</v>
+        <v>1754</v>
       </c>
       <c r="W9" s="12" t="s">
-        <v>1743</v>
+        <v>1745</v>
       </c>
       <c r="Z9" s="12">
         <v>1</v>
@@ -63014,7 +63836,7 @@
         <v>1</v>
       </c>
       <c r="AD9" s="17" t="s">
-        <v>1762</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="10" s="12" customFormat="1" spans="1:30">
@@ -63032,7 +63854,7 @@
         <v>2</v>
       </c>
       <c r="G10" s="12" t="s">
-        <v>1761</v>
+        <v>1763</v>
       </c>
       <c r="H10" s="12">
         <v>1000</v>
@@ -63062,16 +63884,16 @@
         <v>133</v>
       </c>
       <c r="R10" s="17" t="s">
-        <v>1763</v>
+        <v>1765</v>
       </c>
       <c r="U10" s="12">
         <v>1000</v>
       </c>
       <c r="V10" s="12" t="s">
-        <v>1746</v>
+        <v>1748</v>
       </c>
       <c r="W10" s="12" t="s">
-        <v>1743</v>
+        <v>1745</v>
       </c>
       <c r="Z10" s="12">
         <v>1</v>
@@ -63080,7 +63902,7 @@
         <v>1</v>
       </c>
       <c r="AD10" s="17" t="s">
-        <v>1764</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="11" s="12" customFormat="1" spans="1:27">
@@ -63098,7 +63920,7 @@
         <v>2</v>
       </c>
       <c r="G11" s="12" t="s">
-        <v>1739</v>
+        <v>1741</v>
       </c>
       <c r="H11" s="12">
         <v>1500</v>
@@ -63125,22 +63947,22 @@
         <v>0</v>
       </c>
       <c r="Q11" s="17" t="s">
-        <v>1744</v>
+        <v>1746</v>
       </c>
       <c r="R11" s="17" t="s">
-        <v>1745</v>
+        <v>1747</v>
       </c>
       <c r="T11" s="17" t="s">
-        <v>1741</v>
+        <v>1743</v>
       </c>
       <c r="U11" s="17" t="s">
         <v>67</v>
       </c>
       <c r="V11" s="12" t="s">
-        <v>1746</v>
+        <v>1748</v>
       </c>
       <c r="W11" s="12" t="s">
-        <v>1743</v>
+        <v>1745</v>
       </c>
       <c r="Z11" s="12">
         <v>1</v>
@@ -63169,7 +63991,7 @@
         <v>107</v>
       </c>
       <c r="G12" s="12" t="s">
-        <v>1739</v>
+        <v>1741</v>
       </c>
       <c r="H12" s="12">
         <v>100000</v>
@@ -63196,22 +64018,22 @@
         <v>9</v>
       </c>
       <c r="Q12" s="17" t="s">
-        <v>1765</v>
+        <v>1767</v>
       </c>
       <c r="R12" s="17" t="s">
-        <v>1766</v>
+        <v>1768</v>
       </c>
       <c r="T12" s="17" t="s">
-        <v>1741</v>
+        <v>1743</v>
       </c>
       <c r="U12" s="12" t="s">
         <v>87</v>
       </c>
       <c r="V12" s="12" t="s">
-        <v>1767</v>
+        <v>1769</v>
       </c>
       <c r="W12" s="12" t="s">
-        <v>1743</v>
+        <v>1745</v>
       </c>
       <c r="Z12" s="12">
         <v>1</v>
@@ -63240,7 +64062,7 @@
         <v>108</v>
       </c>
       <c r="G13" s="12" t="s">
-        <v>1739</v>
+        <v>1741</v>
       </c>
       <c r="H13" s="12">
         <v>99800</v>
@@ -63267,22 +64089,22 @@
         <v>10</v>
       </c>
       <c r="Q13" s="17" t="s">
-        <v>1768</v>
+        <v>1770</v>
       </c>
       <c r="R13" s="17" t="s">
+        <v>1771</v>
+      </c>
+      <c r="T13" s="17" t="s">
+        <v>1743</v>
+      </c>
+      <c r="U13" s="12" t="s">
+        <v>1772</v>
+      </c>
+      <c r="V13" s="12" t="s">
         <v>1769</v>
       </c>
-      <c r="T13" s="17" t="s">
-        <v>1741</v>
-      </c>
-      <c r="U13" s="12" t="s">
-        <v>1770</v>
-      </c>
-      <c r="V13" s="12" t="s">
-        <v>1767</v>
-      </c>
       <c r="W13" s="12" t="s">
-        <v>1743</v>
+        <v>1745</v>
       </c>
       <c r="Z13" s="12">
         <v>1</v>
@@ -63311,7 +64133,7 @@
         <v>110</v>
       </c>
       <c r="G14" s="12" t="s">
-        <v>1739</v>
+        <v>1741</v>
       </c>
       <c r="H14" s="12">
         <v>249800</v>
@@ -63338,22 +64160,22 @@
         <v>11</v>
       </c>
       <c r="Q14" s="17" t="s">
-        <v>1771</v>
+        <v>1773</v>
       </c>
       <c r="R14" s="17" t="s">
-        <v>1772</v>
+        <v>1774</v>
       </c>
       <c r="T14" s="17" t="s">
-        <v>1773</v>
+        <v>1775</v>
       </c>
       <c r="U14" s="12" t="s">
-        <v>1774</v>
+        <v>1776</v>
       </c>
       <c r="V14" s="12" t="s">
-        <v>1775</v>
+        <v>1777</v>
       </c>
       <c r="W14" s="12" t="s">
-        <v>1743</v>
+        <v>1745</v>
       </c>
       <c r="Z14" s="12">
         <v>1</v>
@@ -63377,7 +64199,7 @@
         <v>1</v>
       </c>
       <c r="G15" s="12" t="s">
-        <v>1761</v>
+        <v>1763</v>
       </c>
       <c r="H15" s="12">
         <v>100</v>
@@ -63407,20 +64229,20 @@
         <v>0</v>
       </c>
       <c r="Q15" s="17" t="s">
-        <v>1759</v>
+        <v>1761</v>
       </c>
       <c r="R15" s="17" t="s">
-        <v>1760</v>
+        <v>1762</v>
       </c>
       <c r="T15" s="17"/>
       <c r="U15" s="12">
         <v>100</v>
       </c>
       <c r="V15" s="17" t="s">
-        <v>1742</v>
+        <v>1744</v>
       </c>
       <c r="W15" s="12" t="s">
-        <v>1743</v>
+        <v>1745</v>
       </c>
       <c r="Z15" s="12">
         <v>1</v>
@@ -63429,7 +64251,7 @@
         <v>1</v>
       </c>
       <c r="AD15" s="17" t="s">
-        <v>1776</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="16" s="12" customFormat="1" spans="1:27">
@@ -63452,7 +64274,7 @@
         <v>101</v>
       </c>
       <c r="G16" s="12" t="s">
-        <v>1739</v>
+        <v>1741</v>
       </c>
       <c r="H16" s="12">
         <v>400</v>
@@ -63479,22 +64301,22 @@
         <v>3</v>
       </c>
       <c r="Q16" s="17" t="s">
-        <v>1777</v>
+        <v>1779</v>
       </c>
       <c r="R16" s="17" t="s">
-        <v>1778</v>
+        <v>1780</v>
       </c>
       <c r="T16" s="17" t="s">
-        <v>1741</v>
+        <v>1743</v>
       </c>
       <c r="U16" s="12" t="s">
         <v>101</v>
       </c>
       <c r="V16" s="17" t="s">
-        <v>1742</v>
+        <v>1744</v>
       </c>
       <c r="W16" s="12" t="s">
-        <v>1743</v>
+        <v>1745</v>
       </c>
       <c r="Z16" s="12">
         <v>1</v>
@@ -63518,7 +64340,7 @@
         <v>102</v>
       </c>
       <c r="G17" s="12" t="s">
-        <v>1739</v>
+        <v>1741</v>
       </c>
       <c r="H17" s="12">
         <v>2000</v>
@@ -63545,22 +64367,22 @@
         <v>4</v>
       </c>
       <c r="Q17" s="17" t="s">
-        <v>1779</v>
+        <v>1781</v>
       </c>
       <c r="R17" s="17" t="s">
-        <v>1780</v>
+        <v>1782</v>
       </c>
       <c r="T17" s="17" t="s">
-        <v>1741</v>
+        <v>1743</v>
       </c>
       <c r="U17" s="12" t="s">
         <v>105</v>
       </c>
       <c r="V17" s="12" t="s">
-        <v>1749</v>
+        <v>1751</v>
       </c>
       <c r="W17" s="12" t="s">
-        <v>1743</v>
+        <v>1745</v>
       </c>
       <c r="Z17" s="12">
         <v>1</v>
@@ -63584,7 +64406,7 @@
         <v>103</v>
       </c>
       <c r="G18" s="12" t="s">
-        <v>1739</v>
+        <v>1741</v>
       </c>
       <c r="H18" s="12">
         <v>6700</v>
@@ -63611,22 +64433,22 @@
         <v>5</v>
       </c>
       <c r="Q18" s="17" t="s">
-        <v>1781</v>
+        <v>1783</v>
       </c>
       <c r="R18" s="17" t="s">
-        <v>1782</v>
+        <v>1784</v>
       </c>
       <c r="T18" s="17" t="s">
-        <v>1741</v>
+        <v>1743</v>
       </c>
       <c r="U18" s="12" t="s">
         <v>109</v>
       </c>
       <c r="V18" s="12" t="s">
-        <v>1755</v>
+        <v>1757</v>
       </c>
       <c r="W18" s="12" t="s">
-        <v>1743</v>
+        <v>1745</v>
       </c>
       <c r="Z18" s="12">
         <v>1</v>
@@ -63650,7 +64472,7 @@
         <v>104</v>
       </c>
       <c r="G19" s="12" t="s">
-        <v>1739</v>
+        <v>1741</v>
       </c>
       <c r="H19" s="12">
         <v>13200</v>
@@ -63677,22 +64499,22 @@
         <v>6</v>
       </c>
       <c r="Q19" s="17" t="s">
-        <v>1783</v>
+        <v>1785</v>
       </c>
       <c r="R19" s="17" t="s">
-        <v>1784</v>
+        <v>1786</v>
       </c>
       <c r="T19" s="17" t="s">
-        <v>1741</v>
+        <v>1743</v>
       </c>
       <c r="U19" s="12" t="s">
         <v>114</v>
       </c>
       <c r="V19" s="17" t="s">
-        <v>1785</v>
+        <v>1787</v>
       </c>
       <c r="W19" s="12" t="s">
-        <v>1743</v>
+        <v>1745</v>
       </c>
       <c r="Z19" s="12">
         <v>1</v>
@@ -63716,7 +64538,7 @@
         <v>105</v>
       </c>
       <c r="G20" s="12" t="s">
-        <v>1739</v>
+        <v>1741</v>
       </c>
       <c r="H20" s="12">
         <v>20400</v>
@@ -63743,22 +64565,22 @@
         <v>7</v>
       </c>
       <c r="Q20" s="17" t="s">
-        <v>1786</v>
+        <v>1788</v>
       </c>
       <c r="R20" s="17" t="s">
-        <v>1787</v>
+        <v>1789</v>
       </c>
       <c r="T20" s="17" t="s">
-        <v>1741</v>
+        <v>1743</v>
       </c>
       <c r="U20" s="12" t="s">
         <v>120</v>
       </c>
       <c r="V20" s="12" t="s">
-        <v>1785</v>
+        <v>1787</v>
       </c>
       <c r="W20" s="12" t="s">
-        <v>1743</v>
+        <v>1745</v>
       </c>
       <c r="Z20" s="12">
         <v>1</v>
@@ -63782,7 +64604,7 @@
         <v>101</v>
       </c>
       <c r="G21" s="13" t="s">
-        <v>1739</v>
+        <v>1741</v>
       </c>
       <c r="H21" s="13">
         <v>100</v>
@@ -63809,22 +64631,22 @@
         <v>0</v>
       </c>
       <c r="Q21" s="18" t="s">
-        <v>1759</v>
+        <v>1761</v>
       </c>
       <c r="R21" s="18" t="s">
-        <v>1760</v>
+        <v>1762</v>
       </c>
       <c r="T21" s="18" t="s">
-        <v>1741</v>
+        <v>1743</v>
       </c>
       <c r="U21" s="13" t="s">
         <v>124</v>
       </c>
       <c r="V21" s="18" t="s">
-        <v>1742</v>
+        <v>1744</v>
       </c>
       <c r="W21" s="13" t="s">
-        <v>1743</v>
+        <v>1745</v>
       </c>
       <c r="Z21" s="13">
         <v>1</v>
@@ -63848,7 +64670,7 @@
         <v>104</v>
       </c>
       <c r="G22" s="12" t="s">
-        <v>1761</v>
+        <v>1763</v>
       </c>
       <c r="H22" s="12">
         <v>5000</v>
@@ -63875,20 +64697,20 @@
         <v>2</v>
       </c>
       <c r="Q22" s="17" t="s">
-        <v>1750</v>
+        <v>1752</v>
       </c>
       <c r="R22" s="17" t="s">
-        <v>1751</v>
+        <v>1753</v>
       </c>
       <c r="T22" s="17"/>
       <c r="U22" s="12">
         <v>5000</v>
       </c>
       <c r="V22" s="17" t="s">
-        <v>1752</v>
+        <v>1754</v>
       </c>
       <c r="W22" s="12" t="s">
-        <v>1743</v>
+        <v>1745</v>
       </c>
       <c r="Z22" s="12">
         <v>1</v>
@@ -63912,7 +64734,7 @@
         <v>102</v>
       </c>
       <c r="G23" s="12" t="s">
-        <v>1761</v>
+        <v>1763</v>
       </c>
       <c r="H23" s="12">
         <v>1000</v>
@@ -63942,17 +64764,17 @@
         <v>133</v>
       </c>
       <c r="R23" s="17" t="s">
-        <v>1763</v>
+        <v>1765</v>
       </c>
       <c r="T23" s="17"/>
       <c r="U23" s="12">
         <v>1000</v>
       </c>
       <c r="V23" s="17" t="s">
-        <v>1742</v>
+        <v>1744</v>
       </c>
       <c r="W23" s="12" t="s">
-        <v>1743</v>
+        <v>1745</v>
       </c>
       <c r="Z23" s="12">
         <v>1</v>
@@ -63969,14 +64791,14 @@
         <v>109</v>
       </c>
       <c r="C24" s="17" t="s">
-        <v>1788</v>
+        <v>1790</v>
       </c>
       <c r="D24" s="15"/>
       <c r="F24" s="12">
         <v>101</v>
       </c>
       <c r="G24" s="12" t="s">
-        <v>1761</v>
+        <v>1763</v>
       </c>
       <c r="H24" s="12">
         <v>100</v>
@@ -64006,20 +64828,20 @@
         <v>0</v>
       </c>
       <c r="Q24" s="17" t="s">
-        <v>1759</v>
+        <v>1761</v>
       </c>
       <c r="R24" s="17" t="s">
-        <v>1760</v>
+        <v>1762</v>
       </c>
       <c r="T24" s="17"/>
       <c r="U24" s="12">
         <v>100</v>
       </c>
       <c r="V24" s="17" t="s">
-        <v>1742</v>
+        <v>1744</v>
       </c>
       <c r="W24" s="12" t="s">
-        <v>1743</v>
+        <v>1745</v>
       </c>
       <c r="Z24" s="12">
         <v>1</v>
@@ -64028,7 +64850,7 @@
         <v>1</v>
       </c>
       <c r="AD24" s="17" t="s">
-        <v>1776</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="25" s="12" customFormat="1" spans="1:27">
@@ -64051,7 +64873,7 @@
         <v>111</v>
       </c>
       <c r="G25" s="17" t="s">
-        <v>1739</v>
+        <v>1741</v>
       </c>
       <c r="H25" s="12">
         <v>19800</v>
@@ -64078,22 +64900,22 @@
         <v>8</v>
       </c>
       <c r="Q25" s="17" t="s">
-        <v>1789</v>
+        <v>1791</v>
       </c>
       <c r="R25" s="17" t="s">
-        <v>1790</v>
+        <v>1792</v>
       </c>
       <c r="T25" s="17" t="s">
-        <v>1741</v>
+        <v>1743</v>
       </c>
       <c r="U25" s="17" t="s">
         <v>143</v>
       </c>
       <c r="V25" s="17" t="s">
-        <v>1785</v>
+        <v>1787</v>
       </c>
       <c r="W25" s="12" t="s">
-        <v>1743</v>
+        <v>1745</v>
       </c>
       <c r="Z25" s="12">
         <v>1</v>
@@ -64163,13 +64985,13 @@
         <v>34</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>1733</v>
+        <v>1735</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>1734</v>
+        <v>1736</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>1791</v>
+        <v>1793</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>32</v>
@@ -64181,16 +65003,16 @@
         <v>154</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>1792</v>
+        <v>1794</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>1793</v>
+        <v>1795</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>1794</v>
+        <v>1796</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>1795</v>
+        <v>1797</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>39</v>
@@ -64231,7 +65053,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>1796</v>
+        <v>1798</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>14</v>
@@ -64243,7 +65065,7 @@
         <v>1</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>1797</v>
+        <v>1799</v>
       </c>
       <c r="L2" s="2">
         <v>54</v>
@@ -64252,7 +65074,7 @@
         <v>999999</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>1798</v>
+        <v>1800</v>
       </c>
       <c r="O2" s="2">
         <v>0</v>
@@ -64261,22 +65083,22 @@
         <v>1</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>1799</v>
+        <v>1801</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>1800</v>
+        <v>1802</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>1801</v>
+        <v>1803</v>
       </c>
       <c r="T2" s="2">
         <v>60000</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>1802</v>
+        <v>1804</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>1743</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="3" s="2" customFormat="1" spans="1:23">
@@ -64287,7 +65109,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>1796</v>
+        <v>1798</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>14</v>
@@ -64299,7 +65121,7 @@
         <v>10</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>1797</v>
+        <v>1799</v>
       </c>
       <c r="L3" s="2">
         <v>54</v>
@@ -64308,7 +65130,7 @@
         <v>999999</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>1803</v>
+        <v>1805</v>
       </c>
       <c r="O3" s="2">
         <v>0</v>
@@ -64317,22 +65139,22 @@
         <v>2</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>1799</v>
+        <v>1801</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>1804</v>
+        <v>1806</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>1801</v>
+        <v>1803</v>
       </c>
       <c r="T3" s="2">
         <v>500000</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>1802</v>
+        <v>1804</v>
       </c>
       <c r="V3" s="2" t="s">
-        <v>1743</v>
+        <v>1745</v>
       </c>
       <c r="W3" s="2">
         <v>8.3</v>
@@ -64346,7 +65168,7 @@
         <v>3</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>1805</v>
+        <v>1807</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>14</v>
@@ -64371,19 +65193,19 @@
         <v>4</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>1806</v>
+        <v>1808</v>
       </c>
       <c r="S4" s="2" t="s">
-        <v>1807</v>
+        <v>1809</v>
       </c>
       <c r="T4" s="2">
         <v>15000</v>
       </c>
       <c r="U4" s="2" t="s">
-        <v>1808</v>
+        <v>1810</v>
       </c>
       <c r="V4" s="2" t="s">
-        <v>1743</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="5" s="2" customFormat="1" spans="1:22">
@@ -64394,7 +65216,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>1809</v>
+        <v>1811</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>14</v>
@@ -64421,10 +65243,10 @@
         <v>100000</v>
       </c>
       <c r="U5" s="12" t="s">
-        <v>1810</v>
+        <v>1812</v>
       </c>
       <c r="V5" s="2" t="s">
-        <v>1743</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="6" s="2" customFormat="1" spans="1:22">
@@ -64435,7 +65257,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>1811</v>
+        <v>1813</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>14</v>
@@ -64462,10 +65284,10 @@
         <v>100000</v>
       </c>
       <c r="U6" s="12" t="s">
-        <v>1810</v>
+        <v>1812</v>
       </c>
       <c r="V6" s="2" t="s">
-        <v>1743</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="7" s="2" customFormat="1" spans="1:23">
@@ -64476,7 +65298,7 @@
         <v>3</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>1796</v>
+        <v>1798</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>14</v>
@@ -64488,7 +65310,7 @@
         <v>10</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>1812</v>
+        <v>1814</v>
       </c>
       <c r="L7" s="2">
         <v>56</v>
@@ -64497,7 +65319,7 @@
         <v>999999</v>
       </c>
       <c r="N7" s="7" t="s">
-        <v>1803</v>
+        <v>1805</v>
       </c>
       <c r="O7" s="6">
         <v>0</v>
@@ -64506,22 +65328,22 @@
         <v>3</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>1813</v>
+        <v>1815</v>
       </c>
       <c r="R7" s="2" t="s">
-        <v>1804</v>
+        <v>1806</v>
       </c>
       <c r="S7" s="2" t="s">
-        <v>1801</v>
+        <v>1803</v>
       </c>
       <c r="T7" s="2">
         <v>500000</v>
       </c>
       <c r="U7" s="2" t="s">
-        <v>1814</v>
+        <v>1816</v>
       </c>
       <c r="V7" s="2" t="s">
-        <v>1743</v>
+        <v>1745</v>
       </c>
       <c r="W7" s="2">
         <v>8.3</v>
@@ -64535,10 +65357,10 @@
         <v>1</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>1815</v>
+        <v>1817</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>1739</v>
+        <v>1741</v>
       </c>
       <c r="F8" s="2">
         <v>100</v>
@@ -64550,7 +65372,7 @@
         <v>125</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>1816</v>
+        <v>1818</v>
       </c>
       <c r="L8" s="2">
         <v>57</v>
@@ -64565,22 +65387,22 @@
         <v>5</v>
       </c>
       <c r="Q8" s="2" t="s">
-        <v>1817</v>
+        <v>1819</v>
       </c>
       <c r="R8" s="2" t="s">
-        <v>1818</v>
+        <v>1820</v>
       </c>
       <c r="S8" s="2" t="s">
-        <v>1801</v>
+        <v>1803</v>
       </c>
       <c r="T8" s="2">
         <v>100</v>
       </c>
       <c r="U8" s="2" t="s">
-        <v>1819</v>
+        <v>1821</v>
       </c>
       <c r="V8" s="7" t="s">
-        <v>1743</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="9" s="2" customFormat="1" spans="1:22">
@@ -64591,10 +65413,10 @@
         <v>15</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>1820</v>
+        <v>1822</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>1739</v>
+        <v>1741</v>
       </c>
       <c r="F9" s="2">
         <v>1000</v>
@@ -64609,16 +65431,16 @@
         <v>6</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>1821</v>
+        <v>1823</v>
       </c>
       <c r="T9" s="2">
         <v>1000</v>
       </c>
       <c r="U9" s="7" t="s">
-        <v>1822</v>
+        <v>1824</v>
       </c>
       <c r="V9" s="7" t="s">
-        <v>1743</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="10" s="2" customFormat="1" spans="1:22">
@@ -64629,10 +65451,10 @@
         <v>16</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>1820</v>
+        <v>1822</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>1739</v>
+        <v>1741</v>
       </c>
       <c r="F10" s="2">
         <v>5800</v>
@@ -64647,16 +65469,16 @@
         <v>7</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>1823</v>
+        <v>1825</v>
       </c>
       <c r="T10" s="2">
         <v>5800</v>
       </c>
       <c r="U10" s="7" t="s">
-        <v>1822</v>
+        <v>1824</v>
       </c>
       <c r="V10" s="7" t="s">
-        <v>1743</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="11" s="2" customFormat="1" spans="1:22">
@@ -64667,10 +65489,10 @@
         <v>17</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>1820</v>
+        <v>1822</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>1739</v>
+        <v>1741</v>
       </c>
       <c r="F11" s="2">
         <v>8800</v>
@@ -64685,16 +65507,16 @@
         <v>8</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>1824</v>
+        <v>1826</v>
       </c>
       <c r="T11" s="2">
         <v>8800</v>
       </c>
       <c r="U11" s="7" t="s">
-        <v>1822</v>
+        <v>1824</v>
       </c>
       <c r="V11" s="7" t="s">
-        <v>1743</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="12" s="2" customFormat="1" spans="1:22">
@@ -64705,10 +65527,10 @@
         <v>18</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>1820</v>
+        <v>1822</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>1739</v>
+        <v>1741</v>
       </c>
       <c r="F12" s="2">
         <v>18800</v>
@@ -64723,16 +65545,16 @@
         <v>9</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>1825</v>
+        <v>1827</v>
       </c>
       <c r="T12" s="2">
         <v>18800</v>
       </c>
       <c r="U12" s="7" t="s">
-        <v>1822</v>
+        <v>1824</v>
       </c>
       <c r="V12" s="7" t="s">
-        <v>1743</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="13" s="2" customFormat="1" spans="1:23">
@@ -64743,7 +65565,7 @@
         <v>19</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>1826</v>
+        <v>1828</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>14</v>
@@ -64767,16 +65589,16 @@
         <v>0</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>1827</v>
+        <v>1829</v>
       </c>
       <c r="T13" s="2">
         <v>70000</v>
       </c>
       <c r="U13" s="7" t="s">
-        <v>1828</v>
+        <v>1830</v>
       </c>
       <c r="V13" s="7" t="s">
-        <v>1743</v>
+        <v>1745</v>
       </c>
       <c r="W13" s="2">
         <v>7</v>
@@ -64790,7 +65612,7 @@
         <v>20</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>1826</v>
+        <v>1828</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>14</v>
@@ -64814,16 +65636,16 @@
         <v>0</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>1829</v>
+        <v>1831</v>
       </c>
       <c r="T14" s="2">
         <v>180000</v>
       </c>
       <c r="U14" s="7" t="s">
-        <v>1828</v>
+        <v>1830</v>
       </c>
       <c r="V14" s="7" t="s">
-        <v>1743</v>
+        <v>1745</v>
       </c>
       <c r="W14" s="2">
         <v>6</v>
@@ -64837,10 +65659,10 @@
         <v>21</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>1826</v>
+        <v>1828</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>1761</v>
+        <v>1763</v>
       </c>
       <c r="F15" s="2">
         <v>1500</v>
@@ -64861,16 +65683,16 @@
         <v>0</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>1830</v>
+        <v>1832</v>
       </c>
       <c r="T15" s="2">
         <v>1500</v>
       </c>
       <c r="U15" s="7" t="s">
-        <v>1828</v>
+        <v>1830</v>
       </c>
       <c r="V15" s="7" t="s">
-        <v>1743</v>
+        <v>1745</v>
       </c>
       <c r="W15" s="2">
         <v>3</v>
@@ -64884,10 +65706,10 @@
         <v>22</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>1831</v>
+        <v>1833</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>1761</v>
+        <v>1763</v>
       </c>
       <c r="F16" s="3">
         <v>200</v>
@@ -64903,13 +65725,13 @@
         <v>0</v>
       </c>
       <c r="Q16" s="9" t="s">
-        <v>1832</v>
+        <v>1834</v>
       </c>
       <c r="T16" s="3">
         <v>200</v>
       </c>
       <c r="V16" s="3" t="s">
-        <v>1743</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="17" s="3" customFormat="1" spans="1:22">
@@ -64920,10 +65742,10 @@
         <v>23</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>1831</v>
+        <v>1833</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>1761</v>
+        <v>1763</v>
       </c>
       <c r="F17" s="3">
         <v>2000</v>
@@ -64939,13 +65761,13 @@
         <v>0</v>
       </c>
       <c r="Q17" s="9" t="s">
-        <v>1833</v>
+        <v>1835</v>
       </c>
       <c r="T17" s="3">
         <v>2000</v>
       </c>
       <c r="V17" s="3" t="s">
-        <v>1743</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="18" s="3" customFormat="1" spans="1:22">
@@ -64956,7 +65778,7 @@
         <v>24</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>1831</v>
+        <v>1833</v>
       </c>
       <c r="E18" s="9" t="s">
         <v>14</v>
@@ -64975,13 +65797,13 @@
         <v>0</v>
       </c>
       <c r="Q18" s="9" t="s">
-        <v>1832</v>
+        <v>1834</v>
       </c>
       <c r="T18" s="3">
         <v>20000</v>
       </c>
       <c r="V18" s="3" t="s">
-        <v>1743</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="19" s="3" customFormat="1" spans="1:22">
@@ -64992,7 +65814,7 @@
         <v>25</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>1831</v>
+        <v>1833</v>
       </c>
       <c r="E19" s="9" t="s">
         <v>14</v>
@@ -65011,13 +65833,13 @@
         <v>0</v>
       </c>
       <c r="Q19" s="9" t="s">
-        <v>1833</v>
+        <v>1835</v>
       </c>
       <c r="T19" s="3">
         <v>200000</v>
       </c>
       <c r="V19" s="3" t="s">
-        <v>1743</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="20" s="4" customFormat="1" spans="1:22">
@@ -65028,7 +65850,7 @@
         <v>26</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>1834</v>
+        <v>1836</v>
       </c>
       <c r="E20" s="11" t="s">
         <v>14</v>
@@ -65046,16 +65868,16 @@
         <v>0</v>
       </c>
       <c r="Q20" s="11" t="s">
-        <v>1835</v>
+        <v>1837</v>
       </c>
       <c r="T20" s="4">
         <v>300000</v>
       </c>
       <c r="U20" s="11" t="s">
-        <v>1836</v>
+        <v>1838</v>
       </c>
       <c r="V20" s="11" t="s">
-        <v>1743</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="21" s="4" customFormat="1" spans="1:22">
@@ -65066,7 +65888,7 @@
         <v>27</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>1837</v>
+        <v>1839</v>
       </c>
       <c r="E21" s="11" t="s">
         <v>14</v>
@@ -65084,16 +65906,16 @@
         <v>0</v>
       </c>
       <c r="Q21" s="11" t="s">
-        <v>1838</v>
+        <v>1840</v>
       </c>
       <c r="T21" s="4">
         <v>300000</v>
       </c>
       <c r="U21" s="11" t="s">
-        <v>1839</v>
+        <v>1841</v>
       </c>
       <c r="V21" s="11" t="s">
-        <v>1743</v>
+        <v>1745</v>
       </c>
     </row>
   </sheetData>

--- a/config_6.29/shoping_config_cjj.xlsx
+++ b/config_6.29/shoping_config_cjj.xlsx
@@ -214,7 +214,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5371" uniqueCount="1842">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5407" uniqueCount="1843">
   <si>
     <t>line_id|行号</t>
   </si>
@@ -5846,6 +5846,9 @@
   </si>
   <si>
     <t>"jing_bi","fish_coin"</t>
+  </si>
+  <si>
+    <t>消暑礼包</t>
   </si>
   <si>
     <t>id|不能重复</t>
@@ -6723,10 +6726,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -6761,7 +6764,44 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6774,69 +6814,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6851,7 +6831,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6859,7 +6839,39 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6875,25 +6887,16 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -6990,7 +6993,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7002,43 +7071,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7050,85 +7107,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7141,6 +7132,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7189,30 +7192,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -7243,22 +7222,26 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -7277,6 +7260,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -7285,10 +7288,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -7297,133 +7300,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -10139,14 +10142,14 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AIF682"/>
+  <dimension ref="A1:AIF688"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="W643" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="W664" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A671" sqref="$A671:$XFD682"/>
+      <selection pane="bottomRight" activeCell="A683" sqref="$A683:$XFD688"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
@@ -61914,6 +61917,396 @@
         <v>1</v>
       </c>
     </row>
+    <row r="683" spans="1:39">
+      <c r="A683" s="21">
+        <v>682</v>
+      </c>
+      <c r="B683" s="30">
+        <v>10599</v>
+      </c>
+      <c r="F683" s="21">
+        <v>1</v>
+      </c>
+      <c r="G683" s="30" t="s">
+        <v>1645</v>
+      </c>
+      <c r="J683" s="28" t="s">
+        <v>1571</v>
+      </c>
+      <c r="L683" s="28">
+        <v>-31</v>
+      </c>
+      <c r="M683" s="28">
+        <v>0</v>
+      </c>
+      <c r="N683" s="28">
+        <v>0</v>
+      </c>
+      <c r="O683" s="28" t="s">
+        <v>169</v>
+      </c>
+      <c r="P683" s="30">
+        <v>49800</v>
+      </c>
+      <c r="Q683" s="28" t="s">
+        <v>1572</v>
+      </c>
+      <c r="R683" s="52" t="s">
+        <v>1573</v>
+      </c>
+      <c r="W683" s="21" t="s">
+        <v>1301</v>
+      </c>
+      <c r="X683" s="28">
+        <v>99999999</v>
+      </c>
+      <c r="Y683" s="30">
+        <v>1624924800</v>
+      </c>
+      <c r="Z683" s="30">
+        <v>1627315199</v>
+      </c>
+      <c r="AA683" s="30">
+        <v>69</v>
+      </c>
+      <c r="AH683" s="30">
+        <v>1</v>
+      </c>
+      <c r="AI683" s="30">
+        <v>1</v>
+      </c>
+      <c r="AL683" s="30">
+        <v>1</v>
+      </c>
+      <c r="AM683" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="684" spans="1:39">
+      <c r="A684" s="21">
+        <v>683</v>
+      </c>
+      <c r="B684" s="30">
+        <v>10600</v>
+      </c>
+      <c r="F684" s="21">
+        <v>1</v>
+      </c>
+      <c r="G684" s="30" t="s">
+        <v>1645</v>
+      </c>
+      <c r="J684" s="28" t="s">
+        <v>1574</v>
+      </c>
+      <c r="L684" s="28">
+        <v>-31</v>
+      </c>
+      <c r="M684" s="28">
+        <v>0</v>
+      </c>
+      <c r="N684" s="28">
+        <v>0</v>
+      </c>
+      <c r="O684" s="28" t="s">
+        <v>169</v>
+      </c>
+      <c r="P684" s="30">
+        <v>19800</v>
+      </c>
+      <c r="Q684" s="28" t="s">
+        <v>1572</v>
+      </c>
+      <c r="R684" s="52" t="s">
+        <v>1575</v>
+      </c>
+      <c r="W684" s="21" t="s">
+        <v>1301</v>
+      </c>
+      <c r="X684" s="28">
+        <v>99999999</v>
+      </c>
+      <c r="Y684" s="30">
+        <v>1624924800</v>
+      </c>
+      <c r="Z684" s="30">
+        <v>1627315199</v>
+      </c>
+      <c r="AA684" s="30">
+        <v>69</v>
+      </c>
+      <c r="AH684" s="30">
+        <v>1</v>
+      </c>
+      <c r="AI684" s="30">
+        <v>1</v>
+      </c>
+      <c r="AL684" s="30">
+        <v>1</v>
+      </c>
+      <c r="AM684" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="685" spans="1:39">
+      <c r="A685" s="21">
+        <v>684</v>
+      </c>
+      <c r="B685" s="30">
+        <v>10601</v>
+      </c>
+      <c r="F685" s="21">
+        <v>1</v>
+      </c>
+      <c r="G685" s="30" t="s">
+        <v>1645</v>
+      </c>
+      <c r="J685" s="28" t="s">
+        <v>1576</v>
+      </c>
+      <c r="L685" s="28">
+        <v>-31</v>
+      </c>
+      <c r="M685" s="28">
+        <v>0</v>
+      </c>
+      <c r="N685" s="28">
+        <v>0</v>
+      </c>
+      <c r="O685" s="28" t="s">
+        <v>169</v>
+      </c>
+      <c r="P685" s="30">
+        <v>9800</v>
+      </c>
+      <c r="Q685" s="28" t="s">
+        <v>1572</v>
+      </c>
+      <c r="R685" s="52" t="s">
+        <v>1577</v>
+      </c>
+      <c r="W685" s="21" t="s">
+        <v>1301</v>
+      </c>
+      <c r="X685" s="28">
+        <v>99999999</v>
+      </c>
+      <c r="Y685" s="30">
+        <v>1624924800</v>
+      </c>
+      <c r="Z685" s="30">
+        <v>1627315199</v>
+      </c>
+      <c r="AA685" s="30">
+        <v>69</v>
+      </c>
+      <c r="AH685" s="30">
+        <v>1</v>
+      </c>
+      <c r="AI685" s="30">
+        <v>1</v>
+      </c>
+      <c r="AL685" s="30">
+        <v>1</v>
+      </c>
+      <c r="AM685" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="686" spans="1:39">
+      <c r="A686" s="21">
+        <v>685</v>
+      </c>
+      <c r="B686" s="30">
+        <v>10602</v>
+      </c>
+      <c r="F686" s="21">
+        <v>1</v>
+      </c>
+      <c r="G686" s="30" t="s">
+        <v>1645</v>
+      </c>
+      <c r="J686" s="28" t="s">
+        <v>1578</v>
+      </c>
+      <c r="L686" s="28">
+        <v>-31</v>
+      </c>
+      <c r="M686" s="28">
+        <v>0</v>
+      </c>
+      <c r="N686" s="28">
+        <v>0</v>
+      </c>
+      <c r="O686" s="28" t="s">
+        <v>169</v>
+      </c>
+      <c r="P686" s="30">
+        <v>4800</v>
+      </c>
+      <c r="Q686" s="28" t="s">
+        <v>1572</v>
+      </c>
+      <c r="R686" s="52" t="s">
+        <v>1579</v>
+      </c>
+      <c r="W686" s="21" t="s">
+        <v>1301</v>
+      </c>
+      <c r="X686" s="28">
+        <v>99999999</v>
+      </c>
+      <c r="Y686" s="30">
+        <v>1624924800</v>
+      </c>
+      <c r="Z686" s="30">
+        <v>1627315199</v>
+      </c>
+      <c r="AA686" s="30">
+        <v>69</v>
+      </c>
+      <c r="AH686" s="30">
+        <v>1</v>
+      </c>
+      <c r="AI686" s="30">
+        <v>1</v>
+      </c>
+      <c r="AL686" s="30">
+        <v>1</v>
+      </c>
+      <c r="AM686" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="687" spans="1:39">
+      <c r="A687" s="21">
+        <v>686</v>
+      </c>
+      <c r="B687" s="30">
+        <v>10603</v>
+      </c>
+      <c r="F687" s="21">
+        <v>1</v>
+      </c>
+      <c r="G687" s="30" t="s">
+        <v>1645</v>
+      </c>
+      <c r="J687" s="28" t="s">
+        <v>1580</v>
+      </c>
+      <c r="L687" s="28">
+        <v>-31</v>
+      </c>
+      <c r="M687" s="28">
+        <v>0</v>
+      </c>
+      <c r="N687" s="28">
+        <v>0</v>
+      </c>
+      <c r="O687" s="28" t="s">
+        <v>169</v>
+      </c>
+      <c r="P687" s="30">
+        <v>2000</v>
+      </c>
+      <c r="Q687" s="28" t="s">
+        <v>1572</v>
+      </c>
+      <c r="R687" s="52" t="s">
+        <v>1581</v>
+      </c>
+      <c r="W687" s="21" t="s">
+        <v>1301</v>
+      </c>
+      <c r="X687" s="28">
+        <v>99999999</v>
+      </c>
+      <c r="Y687" s="30">
+        <v>1624924800</v>
+      </c>
+      <c r="Z687" s="30">
+        <v>1627315199</v>
+      </c>
+      <c r="AA687" s="30">
+        <v>69</v>
+      </c>
+      <c r="AH687" s="30">
+        <v>1</v>
+      </c>
+      <c r="AI687" s="30">
+        <v>1</v>
+      </c>
+      <c r="AL687" s="30">
+        <v>1</v>
+      </c>
+      <c r="AM687" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="688" spans="1:39">
+      <c r="A688" s="21">
+        <v>687</v>
+      </c>
+      <c r="B688" s="30">
+        <v>10604</v>
+      </c>
+      <c r="F688" s="21">
+        <v>1</v>
+      </c>
+      <c r="G688" s="30" t="s">
+        <v>1645</v>
+      </c>
+      <c r="J688" s="28" t="s">
+        <v>1582</v>
+      </c>
+      <c r="L688" s="28">
+        <v>-31</v>
+      </c>
+      <c r="M688" s="28">
+        <v>0</v>
+      </c>
+      <c r="N688" s="28">
+        <v>0</v>
+      </c>
+      <c r="O688" s="28" t="s">
+        <v>169</v>
+      </c>
+      <c r="P688" s="30">
+        <v>600</v>
+      </c>
+      <c r="Q688" s="28" t="s">
+        <v>1572</v>
+      </c>
+      <c r="R688" s="52" t="s">
+        <v>1583</v>
+      </c>
+      <c r="W688" s="21" t="s">
+        <v>1301</v>
+      </c>
+      <c r="X688" s="28">
+        <v>99999999</v>
+      </c>
+      <c r="Y688" s="30">
+        <v>1624924800</v>
+      </c>
+      <c r="Z688" s="30">
+        <v>1627315199</v>
+      </c>
+      <c r="AA688" s="30">
+        <v>69</v>
+      </c>
+      <c r="AH688" s="30">
+        <v>1</v>
+      </c>
+      <c r="AI688" s="30">
+        <v>1</v>
+      </c>
+      <c r="AL688" s="30">
+        <v>1</v>
+      </c>
+      <c r="AM688" s="30">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -61940,19 +62333,19 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="58.5" customHeight="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>1645</v>
+        <v>1646</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1646</v>
+        <v>1647</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1647</v>
+        <v>1648</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>1648</v>
+        <v>1649</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>1649</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="2" ht="57.75" customHeight="1" spans="1:5">
@@ -61960,7 +62353,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>1650</v>
+        <v>1651</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -61969,7 +62362,7 @@
         <v>3600</v>
       </c>
       <c r="E2" t="s">
-        <v>1651</v>
+        <v>1652</v>
       </c>
     </row>
     <row r="3" ht="78.75" customHeight="1" spans="1:4">
@@ -61977,7 +62370,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>1652</v>
+        <v>1653</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -61991,7 +62384,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>1653</v>
+        <v>1654</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -62005,7 +62398,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>1654</v>
+        <v>1655</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -62019,7 +62412,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>1655</v>
+        <v>1656</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -62033,7 +62426,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>1656</v>
+        <v>1657</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -62047,7 +62440,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>1657</v>
+        <v>1658</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -62061,7 +62454,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>1658</v>
+        <v>1659</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -62075,7 +62468,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>1659</v>
+        <v>1660</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -62089,7 +62482,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>1660</v>
+        <v>1661</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -62103,7 +62496,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>1655</v>
+        <v>1656</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -62117,7 +62510,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>1656</v>
+        <v>1657</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -62131,7 +62524,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>1661</v>
+        <v>1662</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -62145,7 +62538,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>1662</v>
+        <v>1663</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -62159,7 +62552,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="20" t="s">
-        <v>1663</v>
+        <v>1664</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -62173,7 +62566,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>1664</v>
+        <v>1665</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -62187,7 +62580,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>1665</v>
+        <v>1666</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -62201,7 +62594,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>1666</v>
+        <v>1667</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -62215,7 +62608,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>1667</v>
+        <v>1668</v>
       </c>
       <c r="C20" s="2">
         <v>1</v>
@@ -62229,7 +62622,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>1668</v>
+        <v>1669</v>
       </c>
       <c r="C21" s="2">
         <v>1</v>
@@ -62243,7 +62636,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>1669</v>
+        <v>1670</v>
       </c>
       <c r="C22" s="2">
         <v>1</v>
@@ -62257,7 +62650,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>1670</v>
+        <v>1671</v>
       </c>
       <c r="C23" s="2">
         <v>1</v>
@@ -62271,7 +62664,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>1671</v>
+        <v>1672</v>
       </c>
       <c r="C24" s="2">
         <v>1</v>
@@ -62285,7 +62678,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>1672</v>
+        <v>1673</v>
       </c>
       <c r="C25" s="2">
         <v>1</v>
@@ -62299,7 +62692,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>1673</v>
+        <v>1674</v>
       </c>
       <c r="C26" s="2">
         <v>1</v>
@@ -62313,7 +62706,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>1674</v>
+        <v>1675</v>
       </c>
       <c r="C27" s="2">
         <v>1</v>
@@ -62328,7 +62721,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>1675</v>
+        <v>1676</v>
       </c>
       <c r="C28" s="2">
         <v>1</v>
@@ -62343,7 +62736,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>1676</v>
+        <v>1677</v>
       </c>
       <c r="C29" s="2">
         <v>1</v>
@@ -62358,7 +62751,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>1677</v>
+        <v>1678</v>
       </c>
       <c r="C30" s="2">
         <v>1</v>
@@ -62373,7 +62766,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>1678</v>
+        <v>1679</v>
       </c>
       <c r="C31" s="2">
         <v>1</v>
@@ -62388,7 +62781,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>1679</v>
+        <v>1680</v>
       </c>
       <c r="C32" s="2">
         <v>1</v>
@@ -62403,7 +62796,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>1680</v>
+        <v>1681</v>
       </c>
       <c r="C33" s="2">
         <v>1</v>
@@ -62418,7 +62811,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>1681</v>
+        <v>1682</v>
       </c>
       <c r="C34" s="2">
         <v>1</v>
@@ -62433,7 +62826,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>1682</v>
+        <v>1683</v>
       </c>
       <c r="C35" s="2">
         <v>1</v>
@@ -62448,7 +62841,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>1683</v>
+        <v>1684</v>
       </c>
       <c r="C36" s="2">
         <v>1</v>
@@ -62463,7 +62856,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>1684</v>
+        <v>1685</v>
       </c>
       <c r="C37" s="2">
         <v>1</v>
@@ -62478,7 +62871,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>1685</v>
+        <v>1686</v>
       </c>
       <c r="C38" s="2">
         <v>1</v>
@@ -62493,7 +62886,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>1686</v>
+        <v>1687</v>
       </c>
       <c r="C39" s="2">
         <v>1</v>
@@ -62507,7 +62900,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>1687</v>
+        <v>1688</v>
       </c>
       <c r="C40" s="2">
         <v>1</v>
@@ -62521,7 +62914,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>1688</v>
+        <v>1689</v>
       </c>
       <c r="C41" s="2">
         <v>1</v>
@@ -62535,7 +62928,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>1689</v>
+        <v>1690</v>
       </c>
       <c r="C42" s="2">
         <v>1</v>
@@ -62549,7 +62942,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>1690</v>
+        <v>1691</v>
       </c>
       <c r="C43" s="2">
         <v>1</v>
@@ -62563,7 +62956,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>1691</v>
+        <v>1692</v>
       </c>
       <c r="C44" s="2">
         <v>1</v>
@@ -62577,7 +62970,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>1692</v>
+        <v>1693</v>
       </c>
       <c r="C45" s="2">
         <v>1</v>
@@ -62591,7 +62984,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>1693</v>
+        <v>1694</v>
       </c>
       <c r="C46" s="2">
         <v>1</v>
@@ -62605,7 +62998,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>1694</v>
+        <v>1695</v>
       </c>
       <c r="C47" s="2">
         <v>1</v>
@@ -62619,7 +63012,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>1695</v>
+        <v>1696</v>
       </c>
       <c r="C48" s="2">
         <v>1</v>
@@ -62633,7 +63026,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>1696</v>
+        <v>1697</v>
       </c>
       <c r="C49" s="2">
         <v>1</v>
@@ -62647,7 +63040,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>1697</v>
+        <v>1698</v>
       </c>
       <c r="C50" s="2">
         <v>1</v>
@@ -62661,7 +63054,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>1698</v>
+        <v>1699</v>
       </c>
       <c r="C51" s="2">
         <v>1</v>
@@ -62675,7 +63068,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>1699</v>
+        <v>1700</v>
       </c>
       <c r="C52" s="2">
         <v>1</v>
@@ -62689,7 +63082,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>1700</v>
+        <v>1701</v>
       </c>
       <c r="C53" s="2">
         <v>1</v>
@@ -62703,7 +63096,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>1701</v>
+        <v>1702</v>
       </c>
       <c r="C54" s="2">
         <v>1</v>
@@ -62717,7 +63110,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>1702</v>
+        <v>1703</v>
       </c>
       <c r="C55" s="2">
         <v>1</v>
@@ -62731,7 +63124,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>1703</v>
+        <v>1704</v>
       </c>
       <c r="C56" s="2">
         <v>1</v>
@@ -62745,7 +63138,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>1704</v>
+        <v>1705</v>
       </c>
       <c r="C57" s="2">
         <v>1</v>
@@ -62759,7 +63152,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>1705</v>
+        <v>1706</v>
       </c>
       <c r="C58" s="2">
         <v>1</v>
@@ -62773,7 +63166,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>1706</v>
+        <v>1707</v>
       </c>
       <c r="C59" s="2">
         <v>1</v>
@@ -62787,7 +63180,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>1707</v>
+        <v>1708</v>
       </c>
       <c r="C60" s="2">
         <v>1</v>
@@ -62801,7 +63194,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>1708</v>
+        <v>1709</v>
       </c>
       <c r="C61" s="2">
         <v>1</v>
@@ -62815,7 +63208,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>1709</v>
+        <v>1710</v>
       </c>
       <c r="C62" s="2">
         <v>1</v>
@@ -62829,7 +63222,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>1710</v>
+        <v>1711</v>
       </c>
       <c r="C63" s="2">
         <v>1</v>
@@ -62843,7 +63236,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>1711</v>
+        <v>1712</v>
       </c>
       <c r="C64" s="2">
         <v>1</v>
@@ -62857,7 +63250,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>1712</v>
+        <v>1713</v>
       </c>
       <c r="C65" s="2">
         <v>1</v>
@@ -62871,7 +63264,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>1713</v>
+        <v>1714</v>
       </c>
       <c r="C66" s="2">
         <v>1</v>
@@ -62885,7 +63278,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>1714</v>
+        <v>1715</v>
       </c>
       <c r="C67" s="2">
         <v>1</v>
@@ -62899,7 +63292,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>1715</v>
+        <v>1716</v>
       </c>
       <c r="C68" s="2">
         <v>1</v>
@@ -62913,7 +63306,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>1716</v>
+        <v>1717</v>
       </c>
       <c r="C69" s="2">
         <v>1</v>
@@ -62927,7 +63320,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>1717</v>
+        <v>1718</v>
       </c>
       <c r="C70" s="2">
         <v>1</v>
@@ -62941,7 +63334,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="22" t="s">
-        <v>1718</v>
+        <v>1719</v>
       </c>
       <c r="C71" s="19">
         <v>1</v>
@@ -62955,7 +63348,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="22" t="s">
-        <v>1719</v>
+        <v>1720</v>
       </c>
       <c r="C72" s="19">
         <v>1</v>
@@ -62969,7 +63362,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="22" t="s">
-        <v>1720</v>
+        <v>1721</v>
       </c>
       <c r="C73" s="19">
         <v>1</v>
@@ -62983,7 +63376,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="22" t="s">
-        <v>1721</v>
+        <v>1722</v>
       </c>
       <c r="C74" s="19">
         <v>1</v>
@@ -62997,7 +63390,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="22" t="s">
-        <v>1722</v>
+        <v>1723</v>
       </c>
       <c r="C75" s="19">
         <v>1</v>
@@ -63011,7 +63404,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="22" t="s">
-        <v>1723</v>
+        <v>1724</v>
       </c>
       <c r="C76" s="19">
         <v>1</v>
@@ -63025,7 +63418,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="22" t="s">
-        <v>1724</v>
+        <v>1725</v>
       </c>
       <c r="C77" s="19">
         <v>1</v>
@@ -63039,7 +63432,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="22" t="s">
-        <v>1725</v>
+        <v>1726</v>
       </c>
       <c r="C78" s="19">
         <v>1</v>
@@ -63053,7 +63446,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="22" t="s">
-        <v>1726</v>
+        <v>1727</v>
       </c>
       <c r="C79" s="19">
         <v>1</v>
@@ -63067,7 +63460,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="22" t="s">
-        <v>1727</v>
+        <v>1728</v>
       </c>
       <c r="C80" s="19">
         <v>1</v>
@@ -63081,7 +63474,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="23" t="s">
-        <v>1728</v>
+        <v>1729</v>
       </c>
       <c r="C81" s="2">
         <v>1</v>
@@ -63095,7 +63488,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="23" t="s">
-        <v>1729</v>
+        <v>1730</v>
       </c>
       <c r="C82" s="2">
         <v>1</v>
@@ -63109,7 +63502,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="23" t="s">
-        <v>1730</v>
+        <v>1731</v>
       </c>
       <c r="C83" s="2">
         <v>1</v>
@@ -63123,7 +63516,7 @@
         <v>83</v>
       </c>
       <c r="B84" s="23" t="s">
-        <v>1731</v>
+        <v>1732</v>
       </c>
       <c r="C84" s="2">
         <v>1</v>
@@ -63137,7 +63530,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="23" t="s">
-        <v>1732</v>
+        <v>1733</v>
       </c>
       <c r="C85">
         <v>1</v>
@@ -63191,7 +63584,7 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="90" customHeight="1" spans="1:30">
       <c r="A1" s="1" t="s">
-        <v>1733</v>
+        <v>1734</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>22</v>
@@ -63206,19 +63599,19 @@
         <v>27</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>1734</v>
+        <v>1735</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>1735</v>
+        <v>1736</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>1736</v>
+        <v>1737</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>1737</v>
+        <v>1738</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>1738</v>
+        <v>1739</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>32</v>
@@ -63233,7 +63626,7 @@
         <v>39</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>1739</v>
+        <v>1740</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>40</v>
@@ -63278,7 +63671,7 @@
         <v>53</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>1740</v>
+        <v>1741</v>
       </c>
     </row>
     <row r="2" s="12" customFormat="1" spans="1:27">
@@ -63301,7 +63694,7 @@
         <v>1</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>1741</v>
+        <v>1742</v>
       </c>
       <c r="H2" s="12">
         <v>600</v>
@@ -63331,19 +63724,19 @@
         <v>131</v>
       </c>
       <c r="R2" s="17" t="s">
-        <v>1742</v>
+        <v>1743</v>
       </c>
       <c r="T2" s="17" t="s">
-        <v>1743</v>
+        <v>1744</v>
       </c>
       <c r="U2" s="12" t="s">
         <v>62</v>
       </c>
       <c r="V2" s="17" t="s">
-        <v>1744</v>
+        <v>1745</v>
       </c>
       <c r="W2" s="12" t="s">
-        <v>1745</v>
+        <v>1746</v>
       </c>
       <c r="Z2" s="12">
         <v>1</v>
@@ -63372,7 +63765,7 @@
         <v>2</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>1741</v>
+        <v>1742</v>
       </c>
       <c r="H3" s="12">
         <v>1500</v>
@@ -63399,22 +63792,22 @@
         <v>4</v>
       </c>
       <c r="Q3" s="17" t="s">
-        <v>1746</v>
+        <v>1747</v>
       </c>
       <c r="R3" s="17" t="s">
-        <v>1747</v>
+        <v>1748</v>
       </c>
       <c r="T3" s="17" t="s">
-        <v>1743</v>
+        <v>1744</v>
       </c>
       <c r="U3" s="12" t="s">
         <v>67</v>
       </c>
       <c r="V3" s="17" t="s">
-        <v>1748</v>
+        <v>1749</v>
       </c>
       <c r="W3" s="12" t="s">
-        <v>1745</v>
+        <v>1746</v>
       </c>
       <c r="Z3" s="12">
         <v>1</v>
@@ -63443,7 +63836,7 @@
         <v>3</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>1741</v>
+        <v>1742</v>
       </c>
       <c r="H4" s="12">
         <v>3000</v>
@@ -63470,22 +63863,22 @@
         <v>5</v>
       </c>
       <c r="Q4" s="17" t="s">
-        <v>1749</v>
+        <v>1750</v>
       </c>
       <c r="R4" s="17" t="s">
-        <v>1750</v>
+        <v>1751</v>
       </c>
       <c r="T4" s="17" t="s">
-        <v>1743</v>
+        <v>1744</v>
       </c>
       <c r="U4" s="12" t="s">
         <v>71</v>
       </c>
       <c r="V4" s="12" t="s">
-        <v>1751</v>
+        <v>1752</v>
       </c>
       <c r="W4" s="12" t="s">
-        <v>1745</v>
+        <v>1746</v>
       </c>
       <c r="Z4" s="12">
         <v>1</v>
@@ -63514,7 +63907,7 @@
         <v>4</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>1741</v>
+        <v>1742</v>
       </c>
       <c r="H5" s="12">
         <v>5000</v>
@@ -63541,22 +63934,22 @@
         <v>6</v>
       </c>
       <c r="Q5" s="17" t="s">
-        <v>1752</v>
+        <v>1753</v>
       </c>
       <c r="R5" s="17" t="s">
-        <v>1753</v>
+        <v>1754</v>
       </c>
       <c r="T5" s="17" t="s">
-        <v>1743</v>
+        <v>1744</v>
       </c>
       <c r="U5" s="12" t="s">
         <v>75</v>
       </c>
       <c r="V5" s="17" t="s">
-        <v>1754</v>
+        <v>1755</v>
       </c>
       <c r="W5" s="12" t="s">
-        <v>1745</v>
+        <v>1746</v>
       </c>
       <c r="Z5" s="12">
         <v>1</v>
@@ -63585,7 +63978,7 @@
         <v>5</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>1741</v>
+        <v>1742</v>
       </c>
       <c r="H6" s="12">
         <v>9800</v>
@@ -63612,22 +64005,22 @@
         <v>7</v>
       </c>
       <c r="Q6" s="17" t="s">
-        <v>1755</v>
+        <v>1756</v>
       </c>
       <c r="R6" s="17" t="s">
-        <v>1756</v>
+        <v>1757</v>
       </c>
       <c r="T6" s="17" t="s">
-        <v>1743</v>
+        <v>1744</v>
       </c>
       <c r="U6" s="12" t="s">
         <v>79</v>
       </c>
       <c r="V6" s="12" t="s">
-        <v>1757</v>
+        <v>1758</v>
       </c>
       <c r="W6" s="12" t="s">
-        <v>1745</v>
+        <v>1746</v>
       </c>
       <c r="Z6" s="12">
         <v>1</v>
@@ -63656,7 +64049,7 @@
         <v>6</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>1741</v>
+        <v>1742</v>
       </c>
       <c r="H7" s="12">
         <v>49800</v>
@@ -63683,22 +64076,22 @@
         <v>9</v>
       </c>
       <c r="Q7" s="17" t="s">
-        <v>1758</v>
+        <v>1759</v>
       </c>
       <c r="R7" s="17" t="s">
-        <v>1759</v>
+        <v>1760</v>
       </c>
       <c r="T7" s="17" t="s">
-        <v>1743</v>
+        <v>1744</v>
       </c>
       <c r="U7" s="12" t="s">
         <v>83</v>
       </c>
       <c r="V7" s="12" t="s">
-        <v>1760</v>
+        <v>1761</v>
       </c>
       <c r="W7" s="12" t="s">
-        <v>1745</v>
+        <v>1746</v>
       </c>
       <c r="Z7" s="12">
         <v>1</v>
@@ -63722,7 +64115,7 @@
         <v>1</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>1741</v>
+        <v>1742</v>
       </c>
       <c r="H8" s="12">
         <v>100</v>
@@ -63749,22 +64142,22 @@
         <v>0</v>
       </c>
       <c r="Q8" s="17" t="s">
-        <v>1761</v>
+        <v>1762</v>
       </c>
       <c r="R8" s="17" t="s">
-        <v>1762</v>
+        <v>1763</v>
       </c>
       <c r="T8" s="17" t="s">
-        <v>1743</v>
+        <v>1744</v>
       </c>
       <c r="U8" s="12" t="s">
         <v>62</v>
       </c>
       <c r="V8" s="17" t="s">
-        <v>1744</v>
+        <v>1745</v>
       </c>
       <c r="W8" s="12" t="s">
-        <v>1745</v>
+        <v>1746</v>
       </c>
       <c r="Z8" s="12">
         <v>1</v>
@@ -63788,7 +64181,7 @@
         <v>5</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>1763</v>
+        <v>1764</v>
       </c>
       <c r="H9" s="12">
         <v>5000</v>
@@ -63815,19 +64208,19 @@
         <v>2</v>
       </c>
       <c r="Q9" s="17" t="s">
-        <v>1752</v>
+        <v>1753</v>
       </c>
       <c r="R9" s="17" t="s">
-        <v>1753</v>
+        <v>1754</v>
       </c>
       <c r="U9" s="12">
         <v>5000</v>
       </c>
       <c r="V9" s="12" t="s">
-        <v>1754</v>
+        <v>1755</v>
       </c>
       <c r="W9" s="12" t="s">
-        <v>1745</v>
+        <v>1746</v>
       </c>
       <c r="Z9" s="12">
         <v>1</v>
@@ -63836,7 +64229,7 @@
         <v>1</v>
       </c>
       <c r="AD9" s="17" t="s">
-        <v>1764</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="10" s="12" customFormat="1" spans="1:30">
@@ -63854,7 +64247,7 @@
         <v>2</v>
       </c>
       <c r="G10" s="12" t="s">
-        <v>1763</v>
+        <v>1764</v>
       </c>
       <c r="H10" s="12">
         <v>1000</v>
@@ -63884,16 +64277,16 @@
         <v>133</v>
       </c>
       <c r="R10" s="17" t="s">
-        <v>1765</v>
+        <v>1766</v>
       </c>
       <c r="U10" s="12">
         <v>1000</v>
       </c>
       <c r="V10" s="12" t="s">
-        <v>1748</v>
+        <v>1749</v>
       </c>
       <c r="W10" s="12" t="s">
-        <v>1745</v>
+        <v>1746</v>
       </c>
       <c r="Z10" s="12">
         <v>1</v>
@@ -63902,7 +64295,7 @@
         <v>1</v>
       </c>
       <c r="AD10" s="17" t="s">
-        <v>1766</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="11" s="12" customFormat="1" spans="1:27">
@@ -63920,7 +64313,7 @@
         <v>2</v>
       </c>
       <c r="G11" s="12" t="s">
-        <v>1741</v>
+        <v>1742</v>
       </c>
       <c r="H11" s="12">
         <v>1500</v>
@@ -63947,22 +64340,22 @@
         <v>0</v>
       </c>
       <c r="Q11" s="17" t="s">
-        <v>1746</v>
+        <v>1747</v>
       </c>
       <c r="R11" s="17" t="s">
-        <v>1747</v>
+        <v>1748</v>
       </c>
       <c r="T11" s="17" t="s">
-        <v>1743</v>
+        <v>1744</v>
       </c>
       <c r="U11" s="17" t="s">
         <v>67</v>
       </c>
       <c r="V11" s="12" t="s">
-        <v>1748</v>
+        <v>1749</v>
       </c>
       <c r="W11" s="12" t="s">
-        <v>1745</v>
+        <v>1746</v>
       </c>
       <c r="Z11" s="12">
         <v>1</v>
@@ -63991,7 +64384,7 @@
         <v>107</v>
       </c>
       <c r="G12" s="12" t="s">
-        <v>1741</v>
+        <v>1742</v>
       </c>
       <c r="H12" s="12">
         <v>100000</v>
@@ -64018,22 +64411,22 @@
         <v>9</v>
       </c>
       <c r="Q12" s="17" t="s">
-        <v>1767</v>
+        <v>1768</v>
       </c>
       <c r="R12" s="17" t="s">
-        <v>1768</v>
+        <v>1769</v>
       </c>
       <c r="T12" s="17" t="s">
-        <v>1743</v>
+        <v>1744</v>
       </c>
       <c r="U12" s="12" t="s">
         <v>87</v>
       </c>
       <c r="V12" s="12" t="s">
-        <v>1769</v>
+        <v>1770</v>
       </c>
       <c r="W12" s="12" t="s">
-        <v>1745</v>
+        <v>1746</v>
       </c>
       <c r="Z12" s="12">
         <v>1</v>
@@ -64062,7 +64455,7 @@
         <v>108</v>
       </c>
       <c r="G13" s="12" t="s">
-        <v>1741</v>
+        <v>1742</v>
       </c>
       <c r="H13" s="12">
         <v>99800</v>
@@ -64089,22 +64482,22 @@
         <v>10</v>
       </c>
       <c r="Q13" s="17" t="s">
+        <v>1771</v>
+      </c>
+      <c r="R13" s="17" t="s">
+        <v>1772</v>
+      </c>
+      <c r="T13" s="17" t="s">
+        <v>1744</v>
+      </c>
+      <c r="U13" s="12" t="s">
+        <v>1773</v>
+      </c>
+      <c r="V13" s="12" t="s">
         <v>1770</v>
       </c>
-      <c r="R13" s="17" t="s">
-        <v>1771</v>
-      </c>
-      <c r="T13" s="17" t="s">
-        <v>1743</v>
-      </c>
-      <c r="U13" s="12" t="s">
-        <v>1772</v>
-      </c>
-      <c r="V13" s="12" t="s">
-        <v>1769</v>
-      </c>
       <c r="W13" s="12" t="s">
-        <v>1745</v>
+        <v>1746</v>
       </c>
       <c r="Z13" s="12">
         <v>1</v>
@@ -64133,7 +64526,7 @@
         <v>110</v>
       </c>
       <c r="G14" s="12" t="s">
-        <v>1741</v>
+        <v>1742</v>
       </c>
       <c r="H14" s="12">
         <v>249800</v>
@@ -64160,22 +64553,22 @@
         <v>11</v>
       </c>
       <c r="Q14" s="17" t="s">
-        <v>1773</v>
+        <v>1774</v>
       </c>
       <c r="R14" s="17" t="s">
-        <v>1774</v>
+        <v>1775</v>
       </c>
       <c r="T14" s="17" t="s">
-        <v>1775</v>
+        <v>1776</v>
       </c>
       <c r="U14" s="12" t="s">
-        <v>1776</v>
+        <v>1777</v>
       </c>
       <c r="V14" s="12" t="s">
-        <v>1777</v>
+        <v>1778</v>
       </c>
       <c r="W14" s="12" t="s">
-        <v>1745</v>
+        <v>1746</v>
       </c>
       <c r="Z14" s="12">
         <v>1</v>
@@ -64199,7 +64592,7 @@
         <v>1</v>
       </c>
       <c r="G15" s="12" t="s">
-        <v>1763</v>
+        <v>1764</v>
       </c>
       <c r="H15" s="12">
         <v>100</v>
@@ -64229,20 +64622,20 @@
         <v>0</v>
       </c>
       <c r="Q15" s="17" t="s">
-        <v>1761</v>
+        <v>1762</v>
       </c>
       <c r="R15" s="17" t="s">
-        <v>1762</v>
+        <v>1763</v>
       </c>
       <c r="T15" s="17"/>
       <c r="U15" s="12">
         <v>100</v>
       </c>
       <c r="V15" s="17" t="s">
-        <v>1744</v>
+        <v>1745</v>
       </c>
       <c r="W15" s="12" t="s">
-        <v>1745</v>
+        <v>1746</v>
       </c>
       <c r="Z15" s="12">
         <v>1</v>
@@ -64251,7 +64644,7 @@
         <v>1</v>
       </c>
       <c r="AD15" s="17" t="s">
-        <v>1778</v>
+        <v>1779</v>
       </c>
     </row>
     <row r="16" s="12" customFormat="1" spans="1:27">
@@ -64274,7 +64667,7 @@
         <v>101</v>
       </c>
       <c r="G16" s="12" t="s">
-        <v>1741</v>
+        <v>1742</v>
       </c>
       <c r="H16" s="12">
         <v>400</v>
@@ -64301,22 +64694,22 @@
         <v>3</v>
       </c>
       <c r="Q16" s="17" t="s">
-        <v>1779</v>
+        <v>1780</v>
       </c>
       <c r="R16" s="17" t="s">
-        <v>1780</v>
+        <v>1781</v>
       </c>
       <c r="T16" s="17" t="s">
-        <v>1743</v>
+        <v>1744</v>
       </c>
       <c r="U16" s="12" t="s">
         <v>101</v>
       </c>
       <c r="V16" s="17" t="s">
-        <v>1744</v>
+        <v>1745</v>
       </c>
       <c r="W16" s="12" t="s">
-        <v>1745</v>
+        <v>1746</v>
       </c>
       <c r="Z16" s="12">
         <v>1</v>
@@ -64340,7 +64733,7 @@
         <v>102</v>
       </c>
       <c r="G17" s="12" t="s">
-        <v>1741</v>
+        <v>1742</v>
       </c>
       <c r="H17" s="12">
         <v>2000</v>
@@ -64367,22 +64760,22 @@
         <v>4</v>
       </c>
       <c r="Q17" s="17" t="s">
-        <v>1781</v>
+        <v>1782</v>
       </c>
       <c r="R17" s="17" t="s">
-        <v>1782</v>
+        <v>1783</v>
       </c>
       <c r="T17" s="17" t="s">
-        <v>1743</v>
+        <v>1744</v>
       </c>
       <c r="U17" s="12" t="s">
         <v>105</v>
       </c>
       <c r="V17" s="12" t="s">
-        <v>1751</v>
+        <v>1752</v>
       </c>
       <c r="W17" s="12" t="s">
-        <v>1745</v>
+        <v>1746</v>
       </c>
       <c r="Z17" s="12">
         <v>1</v>
@@ -64406,7 +64799,7 @@
         <v>103</v>
       </c>
       <c r="G18" s="12" t="s">
-        <v>1741</v>
+        <v>1742</v>
       </c>
       <c r="H18" s="12">
         <v>6700</v>
@@ -64433,22 +64826,22 @@
         <v>5</v>
       </c>
       <c r="Q18" s="17" t="s">
-        <v>1783</v>
+        <v>1784</v>
       </c>
       <c r="R18" s="17" t="s">
-        <v>1784</v>
+        <v>1785</v>
       </c>
       <c r="T18" s="17" t="s">
-        <v>1743</v>
+        <v>1744</v>
       </c>
       <c r="U18" s="12" t="s">
         <v>109</v>
       </c>
       <c r="V18" s="12" t="s">
-        <v>1757</v>
+        <v>1758</v>
       </c>
       <c r="W18" s="12" t="s">
-        <v>1745</v>
+        <v>1746</v>
       </c>
       <c r="Z18" s="12">
         <v>1</v>
@@ -64472,7 +64865,7 @@
         <v>104</v>
       </c>
       <c r="G19" s="12" t="s">
-        <v>1741</v>
+        <v>1742</v>
       </c>
       <c r="H19" s="12">
         <v>13200</v>
@@ -64499,22 +64892,22 @@
         <v>6</v>
       </c>
       <c r="Q19" s="17" t="s">
-        <v>1785</v>
+        <v>1786</v>
       </c>
       <c r="R19" s="17" t="s">
-        <v>1786</v>
+        <v>1787</v>
       </c>
       <c r="T19" s="17" t="s">
-        <v>1743</v>
+        <v>1744</v>
       </c>
       <c r="U19" s="12" t="s">
         <v>114</v>
       </c>
       <c r="V19" s="17" t="s">
-        <v>1787</v>
+        <v>1788</v>
       </c>
       <c r="W19" s="12" t="s">
-        <v>1745</v>
+        <v>1746</v>
       </c>
       <c r="Z19" s="12">
         <v>1</v>
@@ -64538,7 +64931,7 @@
         <v>105</v>
       </c>
       <c r="G20" s="12" t="s">
-        <v>1741</v>
+        <v>1742</v>
       </c>
       <c r="H20" s="12">
         <v>20400</v>
@@ -64565,22 +64958,22 @@
         <v>7</v>
       </c>
       <c r="Q20" s="17" t="s">
-        <v>1788</v>
+        <v>1789</v>
       </c>
       <c r="R20" s="17" t="s">
-        <v>1789</v>
+        <v>1790</v>
       </c>
       <c r="T20" s="17" t="s">
-        <v>1743</v>
+        <v>1744</v>
       </c>
       <c r="U20" s="12" t="s">
         <v>120</v>
       </c>
       <c r="V20" s="12" t="s">
-        <v>1787</v>
+        <v>1788</v>
       </c>
       <c r="W20" s="12" t="s">
-        <v>1745</v>
+        <v>1746</v>
       </c>
       <c r="Z20" s="12">
         <v>1</v>
@@ -64604,7 +64997,7 @@
         <v>101</v>
       </c>
       <c r="G21" s="13" t="s">
-        <v>1741</v>
+        <v>1742</v>
       </c>
       <c r="H21" s="13">
         <v>100</v>
@@ -64631,22 +65024,22 @@
         <v>0</v>
       </c>
       <c r="Q21" s="18" t="s">
-        <v>1761</v>
+        <v>1762</v>
       </c>
       <c r="R21" s="18" t="s">
-        <v>1762</v>
+        <v>1763</v>
       </c>
       <c r="T21" s="18" t="s">
-        <v>1743</v>
+        <v>1744</v>
       </c>
       <c r="U21" s="13" t="s">
         <v>124</v>
       </c>
       <c r="V21" s="18" t="s">
-        <v>1744</v>
+        <v>1745</v>
       </c>
       <c r="W21" s="13" t="s">
-        <v>1745</v>
+        <v>1746</v>
       </c>
       <c r="Z21" s="13">
         <v>1</v>
@@ -64670,7 +65063,7 @@
         <v>104</v>
       </c>
       <c r="G22" s="12" t="s">
-        <v>1763</v>
+        <v>1764</v>
       </c>
       <c r="H22" s="12">
         <v>5000</v>
@@ -64697,20 +65090,20 @@
         <v>2</v>
       </c>
       <c r="Q22" s="17" t="s">
-        <v>1752</v>
+        <v>1753</v>
       </c>
       <c r="R22" s="17" t="s">
-        <v>1753</v>
+        <v>1754</v>
       </c>
       <c r="T22" s="17"/>
       <c r="U22" s="12">
         <v>5000</v>
       </c>
       <c r="V22" s="17" t="s">
-        <v>1754</v>
+        <v>1755</v>
       </c>
       <c r="W22" s="12" t="s">
-        <v>1745</v>
+        <v>1746</v>
       </c>
       <c r="Z22" s="12">
         <v>1</v>
@@ -64734,7 +65127,7 @@
         <v>102</v>
       </c>
       <c r="G23" s="12" t="s">
-        <v>1763</v>
+        <v>1764</v>
       </c>
       <c r="H23" s="12">
         <v>1000</v>
@@ -64764,17 +65157,17 @@
         <v>133</v>
       </c>
       <c r="R23" s="17" t="s">
-        <v>1765</v>
+        <v>1766</v>
       </c>
       <c r="T23" s="17"/>
       <c r="U23" s="12">
         <v>1000</v>
       </c>
       <c r="V23" s="17" t="s">
-        <v>1744</v>
+        <v>1745</v>
       </c>
       <c r="W23" s="12" t="s">
-        <v>1745</v>
+        <v>1746</v>
       </c>
       <c r="Z23" s="12">
         <v>1</v>
@@ -64791,14 +65184,14 @@
         <v>109</v>
       </c>
       <c r="C24" s="17" t="s">
-        <v>1790</v>
+        <v>1791</v>
       </c>
       <c r="D24" s="15"/>
       <c r="F24" s="12">
         <v>101</v>
       </c>
       <c r="G24" s="12" t="s">
-        <v>1763</v>
+        <v>1764</v>
       </c>
       <c r="H24" s="12">
         <v>100</v>
@@ -64828,20 +65221,20 @@
         <v>0</v>
       </c>
       <c r="Q24" s="17" t="s">
-        <v>1761</v>
+        <v>1762</v>
       </c>
       <c r="R24" s="17" t="s">
-        <v>1762</v>
+        <v>1763</v>
       </c>
       <c r="T24" s="17"/>
       <c r="U24" s="12">
         <v>100</v>
       </c>
       <c r="V24" s="17" t="s">
-        <v>1744</v>
+        <v>1745</v>
       </c>
       <c r="W24" s="12" t="s">
-        <v>1745</v>
+        <v>1746</v>
       </c>
       <c r="Z24" s="12">
         <v>1</v>
@@ -64850,7 +65243,7 @@
         <v>1</v>
       </c>
       <c r="AD24" s="17" t="s">
-        <v>1778</v>
+        <v>1779</v>
       </c>
     </row>
     <row r="25" s="12" customFormat="1" spans="1:27">
@@ -64873,7 +65266,7 @@
         <v>111</v>
       </c>
       <c r="G25" s="17" t="s">
-        <v>1741</v>
+        <v>1742</v>
       </c>
       <c r="H25" s="12">
         <v>19800</v>
@@ -64900,22 +65293,22 @@
         <v>8</v>
       </c>
       <c r="Q25" s="17" t="s">
-        <v>1791</v>
+        <v>1792</v>
       </c>
       <c r="R25" s="17" t="s">
-        <v>1792</v>
+        <v>1793</v>
       </c>
       <c r="T25" s="17" t="s">
-        <v>1743</v>
+        <v>1744</v>
       </c>
       <c r="U25" s="17" t="s">
         <v>143</v>
       </c>
       <c r="V25" s="17" t="s">
-        <v>1787</v>
+        <v>1788</v>
       </c>
       <c r="W25" s="12" t="s">
-        <v>1745</v>
+        <v>1746</v>
       </c>
       <c r="Z25" s="12">
         <v>1</v>
@@ -64985,13 +65378,13 @@
         <v>34</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>1735</v>
+        <v>1736</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>1736</v>
+        <v>1737</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>1793</v>
+        <v>1794</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>32</v>
@@ -65003,16 +65396,16 @@
         <v>154</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>1794</v>
+        <v>1795</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>1795</v>
+        <v>1796</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>1796</v>
+        <v>1797</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>1797</v>
+        <v>1798</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>39</v>
@@ -65053,7 +65446,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>1798</v>
+        <v>1799</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>14</v>
@@ -65065,7 +65458,7 @@
         <v>1</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>1799</v>
+        <v>1800</v>
       </c>
       <c r="L2" s="2">
         <v>54</v>
@@ -65074,7 +65467,7 @@
         <v>999999</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>1800</v>
+        <v>1801</v>
       </c>
       <c r="O2" s="2">
         <v>0</v>
@@ -65083,22 +65476,22 @@
         <v>1</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>1801</v>
+        <v>1802</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>1802</v>
+        <v>1803</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>1803</v>
+        <v>1804</v>
       </c>
       <c r="T2" s="2">
         <v>60000</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>1804</v>
+        <v>1805</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>1745</v>
+        <v>1746</v>
       </c>
     </row>
     <row r="3" s="2" customFormat="1" spans="1:23">
@@ -65109,7 +65502,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>1798</v>
+        <v>1799</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>14</v>
@@ -65121,7 +65514,7 @@
         <v>10</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>1799</v>
+        <v>1800</v>
       </c>
       <c r="L3" s="2">
         <v>54</v>
@@ -65130,7 +65523,7 @@
         <v>999999</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>1805</v>
+        <v>1806</v>
       </c>
       <c r="O3" s="2">
         <v>0</v>
@@ -65139,22 +65532,22 @@
         <v>2</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>1801</v>
+        <v>1802</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>1806</v>
+        <v>1807</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>1803</v>
+        <v>1804</v>
       </c>
       <c r="T3" s="2">
         <v>500000</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>1804</v>
+        <v>1805</v>
       </c>
       <c r="V3" s="2" t="s">
-        <v>1745</v>
+        <v>1746</v>
       </c>
       <c r="W3" s="2">
         <v>8.3</v>
@@ -65168,7 +65561,7 @@
         <v>3</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>1807</v>
+        <v>1808</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>14</v>
@@ -65193,19 +65586,19 @@
         <v>4</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>1808</v>
+        <v>1809</v>
       </c>
       <c r="S4" s="2" t="s">
-        <v>1809</v>
+        <v>1810</v>
       </c>
       <c r="T4" s="2">
         <v>15000</v>
       </c>
       <c r="U4" s="2" t="s">
-        <v>1810</v>
+        <v>1811</v>
       </c>
       <c r="V4" s="2" t="s">
-        <v>1745</v>
+        <v>1746</v>
       </c>
     </row>
     <row r="5" s="2" customFormat="1" spans="1:22">
@@ -65216,7 +65609,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>1811</v>
+        <v>1812</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>14</v>
@@ -65243,10 +65636,10 @@
         <v>100000</v>
       </c>
       <c r="U5" s="12" t="s">
-        <v>1812</v>
+        <v>1813</v>
       </c>
       <c r="V5" s="2" t="s">
-        <v>1745</v>
+        <v>1746</v>
       </c>
     </row>
     <row r="6" s="2" customFormat="1" spans="1:22">
@@ -65257,7 +65650,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>1813</v>
+        <v>1814</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>14</v>
@@ -65284,10 +65677,10 @@
         <v>100000</v>
       </c>
       <c r="U6" s="12" t="s">
-        <v>1812</v>
+        <v>1813</v>
       </c>
       <c r="V6" s="2" t="s">
-        <v>1745</v>
+        <v>1746</v>
       </c>
     </row>
     <row r="7" s="2" customFormat="1" spans="1:23">
@@ -65298,7 +65691,7 @@
         <v>3</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>1798</v>
+        <v>1799</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>14</v>
@@ -65310,7 +65703,7 @@
         <v>10</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>1814</v>
+        <v>1815</v>
       </c>
       <c r="L7" s="2">
         <v>56</v>
@@ -65319,7 +65712,7 @@
         <v>999999</v>
       </c>
       <c r="N7" s="7" t="s">
-        <v>1805</v>
+        <v>1806</v>
       </c>
       <c r="O7" s="6">
         <v>0</v>
@@ -65328,22 +65721,22 @@
         <v>3</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>1815</v>
+        <v>1816</v>
       </c>
       <c r="R7" s="2" t="s">
-        <v>1806</v>
+        <v>1807</v>
       </c>
       <c r="S7" s="2" t="s">
-        <v>1803</v>
+        <v>1804</v>
       </c>
       <c r="T7" s="2">
         <v>500000</v>
       </c>
       <c r="U7" s="2" t="s">
-        <v>1816</v>
+        <v>1817</v>
       </c>
       <c r="V7" s="2" t="s">
-        <v>1745</v>
+        <v>1746</v>
       </c>
       <c r="W7" s="2">
         <v>8.3</v>
@@ -65357,10 +65750,10 @@
         <v>1</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>1817</v>
+        <v>1818</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>1741</v>
+        <v>1742</v>
       </c>
       <c r="F8" s="2">
         <v>100</v>
@@ -65372,7 +65765,7 @@
         <v>125</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>1818</v>
+        <v>1819</v>
       </c>
       <c r="L8" s="2">
         <v>57</v>
@@ -65387,22 +65780,22 @@
         <v>5</v>
       </c>
       <c r="Q8" s="2" t="s">
-        <v>1819</v>
+        <v>1820</v>
       </c>
       <c r="R8" s="2" t="s">
-        <v>1820</v>
+        <v>1821</v>
       </c>
       <c r="S8" s="2" t="s">
-        <v>1803</v>
+        <v>1804</v>
       </c>
       <c r="T8" s="2">
         <v>100</v>
       </c>
       <c r="U8" s="2" t="s">
-        <v>1821</v>
+        <v>1822</v>
       </c>
       <c r="V8" s="7" t="s">
-        <v>1745</v>
+        <v>1746</v>
       </c>
     </row>
     <row r="9" s="2" customFormat="1" spans="1:22">
@@ -65413,10 +65806,10 @@
         <v>15</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>1822</v>
+        <v>1823</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>1741</v>
+        <v>1742</v>
       </c>
       <c r="F9" s="2">
         <v>1000</v>
@@ -65431,16 +65824,16 @@
         <v>6</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>1823</v>
+        <v>1824</v>
       </c>
       <c r="T9" s="2">
         <v>1000</v>
       </c>
       <c r="U9" s="7" t="s">
-        <v>1824</v>
+        <v>1825</v>
       </c>
       <c r="V9" s="7" t="s">
-        <v>1745</v>
+        <v>1746</v>
       </c>
     </row>
     <row r="10" s="2" customFormat="1" spans="1:22">
@@ -65451,10 +65844,10 @@
         <v>16</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>1822</v>
+        <v>1823</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>1741</v>
+        <v>1742</v>
       </c>
       <c r="F10" s="2">
         <v>5800</v>
@@ -65469,16 +65862,16 @@
         <v>7</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>1825</v>
+        <v>1826</v>
       </c>
       <c r="T10" s="2">
         <v>5800</v>
       </c>
       <c r="U10" s="7" t="s">
-        <v>1824</v>
+        <v>1825</v>
       </c>
       <c r="V10" s="7" t="s">
-        <v>1745</v>
+        <v>1746</v>
       </c>
     </row>
     <row r="11" s="2" customFormat="1" spans="1:22">
@@ -65489,10 +65882,10 @@
         <v>17</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>1822</v>
+        <v>1823</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>1741</v>
+        <v>1742</v>
       </c>
       <c r="F11" s="2">
         <v>8800</v>
@@ -65507,16 +65900,16 @@
         <v>8</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>1826</v>
+        <v>1827</v>
       </c>
       <c r="T11" s="2">
         <v>8800</v>
       </c>
       <c r="U11" s="7" t="s">
-        <v>1824</v>
+        <v>1825</v>
       </c>
       <c r="V11" s="7" t="s">
-        <v>1745</v>
+        <v>1746</v>
       </c>
     </row>
     <row r="12" s="2" customFormat="1" spans="1:22">
@@ -65527,10 +65920,10 @@
         <v>18</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>1822</v>
+        <v>1823</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>1741</v>
+        <v>1742</v>
       </c>
       <c r="F12" s="2">
         <v>18800</v>
@@ -65545,16 +65938,16 @@
         <v>9</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>1827</v>
+        <v>1828</v>
       </c>
       <c r="T12" s="2">
         <v>18800</v>
       </c>
       <c r="U12" s="7" t="s">
-        <v>1824</v>
+        <v>1825</v>
       </c>
       <c r="V12" s="7" t="s">
-        <v>1745</v>
+        <v>1746</v>
       </c>
     </row>
     <row r="13" s="2" customFormat="1" spans="1:23">
@@ -65565,7 +65958,7 @@
         <v>19</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>1828</v>
+        <v>1829</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>14</v>
@@ -65589,16 +65982,16 @@
         <v>0</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>1829</v>
+        <v>1830</v>
       </c>
       <c r="T13" s="2">
         <v>70000</v>
       </c>
       <c r="U13" s="7" t="s">
-        <v>1830</v>
+        <v>1831</v>
       </c>
       <c r="V13" s="7" t="s">
-        <v>1745</v>
+        <v>1746</v>
       </c>
       <c r="W13" s="2">
         <v>7</v>
@@ -65612,7 +66005,7 @@
         <v>20</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>1828</v>
+        <v>1829</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>14</v>
@@ -65636,16 +66029,16 @@
         <v>0</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>1831</v>
+        <v>1832</v>
       </c>
       <c r="T14" s="2">
         <v>180000</v>
       </c>
       <c r="U14" s="7" t="s">
-        <v>1830</v>
+        <v>1831</v>
       </c>
       <c r="V14" s="7" t="s">
-        <v>1745</v>
+        <v>1746</v>
       </c>
       <c r="W14" s="2">
         <v>6</v>
@@ -65659,10 +66052,10 @@
         <v>21</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>1828</v>
+        <v>1829</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>1763</v>
+        <v>1764</v>
       </c>
       <c r="F15" s="2">
         <v>1500</v>
@@ -65683,16 +66076,16 @@
         <v>0</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>1832</v>
+        <v>1833</v>
       </c>
       <c r="T15" s="2">
         <v>1500</v>
       </c>
       <c r="U15" s="7" t="s">
-        <v>1830</v>
+        <v>1831</v>
       </c>
       <c r="V15" s="7" t="s">
-        <v>1745</v>
+        <v>1746</v>
       </c>
       <c r="W15" s="2">
         <v>3</v>
@@ -65706,10 +66099,10 @@
         <v>22</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>1833</v>
+        <v>1834</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>1763</v>
+        <v>1764</v>
       </c>
       <c r="F16" s="3">
         <v>200</v>
@@ -65725,13 +66118,13 @@
         <v>0</v>
       </c>
       <c r="Q16" s="9" t="s">
-        <v>1834</v>
+        <v>1835</v>
       </c>
       <c r="T16" s="3">
         <v>200</v>
       </c>
       <c r="V16" s="3" t="s">
-        <v>1745</v>
+        <v>1746</v>
       </c>
     </row>
     <row r="17" s="3" customFormat="1" spans="1:22">
@@ -65742,10 +66135,10 @@
         <v>23</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>1833</v>
+        <v>1834</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>1763</v>
+        <v>1764</v>
       </c>
       <c r="F17" s="3">
         <v>2000</v>
@@ -65761,13 +66154,13 @@
         <v>0</v>
       </c>
       <c r="Q17" s="9" t="s">
-        <v>1835</v>
+        <v>1836</v>
       </c>
       <c r="T17" s="3">
         <v>2000</v>
       </c>
       <c r="V17" s="3" t="s">
-        <v>1745</v>
+        <v>1746</v>
       </c>
     </row>
     <row r="18" s="3" customFormat="1" spans="1:22">
@@ -65778,7 +66171,7 @@
         <v>24</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>1833</v>
+        <v>1834</v>
       </c>
       <c r="E18" s="9" t="s">
         <v>14</v>
@@ -65797,13 +66190,13 @@
         <v>0</v>
       </c>
       <c r="Q18" s="9" t="s">
-        <v>1834</v>
+        <v>1835</v>
       </c>
       <c r="T18" s="3">
         <v>20000</v>
       </c>
       <c r="V18" s="3" t="s">
-        <v>1745</v>
+        <v>1746</v>
       </c>
     </row>
     <row r="19" s="3" customFormat="1" spans="1:22">
@@ -65814,7 +66207,7 @@
         <v>25</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>1833</v>
+        <v>1834</v>
       </c>
       <c r="E19" s="9" t="s">
         <v>14</v>
@@ -65833,13 +66226,13 @@
         <v>0</v>
       </c>
       <c r="Q19" s="9" t="s">
-        <v>1835</v>
+        <v>1836</v>
       </c>
       <c r="T19" s="3">
         <v>200000</v>
       </c>
       <c r="V19" s="3" t="s">
-        <v>1745</v>
+        <v>1746</v>
       </c>
     </row>
     <row r="20" s="4" customFormat="1" spans="1:22">
@@ -65850,7 +66243,7 @@
         <v>26</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>1836</v>
+        <v>1837</v>
       </c>
       <c r="E20" s="11" t="s">
         <v>14</v>
@@ -65868,16 +66261,16 @@
         <v>0</v>
       </c>
       <c r="Q20" s="11" t="s">
-        <v>1837</v>
+        <v>1838</v>
       </c>
       <c r="T20" s="4">
         <v>300000</v>
       </c>
       <c r="U20" s="11" t="s">
-        <v>1838</v>
+        <v>1839</v>
       </c>
       <c r="V20" s="11" t="s">
-        <v>1745</v>
+        <v>1746</v>
       </c>
     </row>
     <row r="21" s="4" customFormat="1" spans="1:22">
@@ -65888,7 +66281,7 @@
         <v>27</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>1839</v>
+        <v>1840</v>
       </c>
       <c r="E21" s="11" t="s">
         <v>14</v>
@@ -65906,16 +66299,16 @@
         <v>0</v>
       </c>
       <c r="Q21" s="11" t="s">
-        <v>1840</v>
+        <v>1841</v>
       </c>
       <c r="T21" s="4">
         <v>300000</v>
       </c>
       <c r="U21" s="11" t="s">
-        <v>1841</v>
+        <v>1842</v>
       </c>
       <c r="V21" s="11" t="s">
-        <v>1745</v>
+        <v>1746</v>
       </c>
     </row>
   </sheetData>
